--- a/resultData/USB-флеш-накопители.xlsx
+++ b/resultData/USB-флеш-накопители.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65520DF-F0B1-4160-8630-B6D4E4FDF2D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="USB-флеш-накопители" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="USB-флеш-накопители" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="662">
   <si>
     <t>Встречаемость</t>
   </si>
@@ -2006,20 +2011,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -2035,15 +2039,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2331,122 +2344,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s"/>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="n">
-        <v>54.96412689000889</v>
-      </c>
-      <c r="G1" t="n">
-        <v>31.34302620456467</v>
-      </c>
-      <c r="H1" t="n">
-        <v>75.39406262708418</v>
-      </c>
-      <c r="I1" t="n">
-        <v>6621.214285714285</v>
-      </c>
-      <c r="J1" t="n">
-        <v>1640.654867256637</v>
-      </c>
-      <c r="K1" t="n">
-        <v>387.8535564853556</v>
-      </c>
-      <c r="L1" t="n">
-        <v>30.18463041354608</v>
-      </c>
-      <c r="M1" t="n">
+      <c r="F1">
+        <v>54.964126890008892</v>
+      </c>
+      <c r="G1">
+        <v>31.343026204564669</v>
+      </c>
+      <c r="H1">
+        <v>75.394062627084182</v>
+      </c>
+      <c r="I1">
+        <v>6621.2142857142853</v>
+      </c>
+      <c r="J1">
+        <v>1640.6548672566371</v>
+      </c>
+      <c r="K1">
+        <v>387.85355648535563</v>
+      </c>
+      <c r="L1">
+        <v>30.184630413546081</v>
+      </c>
+      <c r="M1">
         <v>26.67155804920155</v>
       </c>
-      <c r="N1" t="n">
-        <v>261.4866008462623</v>
-      </c>
-      <c r="O1" t="n">
-        <v>20.49911543564794</v>
-      </c>
-      <c r="P1" t="n">
-        <v>22.67261831967714</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>19.66627771295216</v>
-      </c>
-      <c r="R1" t="n">
-        <v>274.2514792899408</v>
-      </c>
-      <c r="S1" t="n">
-        <v>42.28877737226277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+      <c r="N1">
+        <v>261.48660084626232</v>
+      </c>
+      <c r="O1">
+        <v>20.499115435647941</v>
+      </c>
+      <c r="P1">
+        <v>22.672618319677142</v>
+      </c>
+      <c r="Q1">
+        <v>19.666277712952159</v>
+      </c>
+      <c r="R1">
+        <v>274.25147928994079</v>
+      </c>
+      <c r="S1">
+        <v>42.288777372262771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>105.9394285714286</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>105.93942857142861</v>
+      </c>
+      <c r="G2">
         <v>189.1775510204082</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>101.0872410032715</v>
       </c>
-      <c r="I2" t="n">
-        <v>75.67102040816327</v>
-      </c>
-      <c r="J2" t="n">
-        <v>98.82409381663113</v>
-      </c>
-      <c r="K2" t="n">
-        <v>401.2857142857143</v>
-      </c>
-      <c r="L2" t="n">
-        <v>357.9034749034749</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6621.214285714286</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="I2">
+        <v>75.671020408163272</v>
+      </c>
+      <c r="J2">
+        <v>98.824093816631134</v>
+      </c>
+      <c r="K2">
+        <v>401.28571428571428</v>
+      </c>
+      <c r="L2">
+        <v>357.90347490347489</v>
+      </c>
+      <c r="M2">
+        <v>6621.2142857142862</v>
+      </c>
+      <c r="N2">
         <v>2207.071428571428</v>
       </c>
-      <c r="O2" t="n">
-        <v>3310.607142857143</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6621.214285714286</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4414.142857142857</v>
-      </c>
-      <c r="R2" t="n">
-        <v>157.6479591836735</v>
-      </c>
-      <c r="S2" t="n">
-        <v>157.6479591836735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="O2">
+        <v>3310.6071428571431</v>
+      </c>
+      <c r="P2">
+        <v>6621.2142857142862</v>
+      </c>
+      <c r="Q2">
+        <v>4414.1428571428569</v>
+      </c>
+      <c r="R2">
+        <v>157.64795918367349</v>
+      </c>
+      <c r="S2">
+        <v>157.64795918367349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2505,9 +2506,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="n">
-        <v>1248820.113295755</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1248820.1132957551</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -2521,7 +2522,6 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
@@ -2531,20 +2531,12 @@
       <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
       <c r="R4" t="s">
         <v>28</v>
       </c>
-      <c r="S4" t="s"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1194409.115029275</v>
       </c>
       <c r="B5" t="s">
@@ -2574,21 +2566,13 @@
       <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" t="s"/>
       <c r="L5" t="s">
         <v>37</v>
       </c>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="n">
-        <v>276943.2188605599</v>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>276943.21886055992</v>
       </c>
       <c r="B6" t="s">
         <v>38</v>
@@ -2605,7 +2589,6 @@
       <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>41</v>
       </c>
@@ -2621,19 +2604,13 @@
       <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>46</v>
       </c>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="n">
-        <v>272340.6388716295</v>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>272340.63887162949</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -2647,7 +2624,6 @@
       <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s"/>
       <c r="H7" t="s">
         <v>50</v>
       </c>
@@ -2657,13 +2633,6 @@
       <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
       <c r="R7" t="s">
         <v>51</v>
       </c>
@@ -2671,9 +2640,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="n">
-        <v>263872.7720923926</v>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>263872.77209239261</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -2690,7 +2659,6 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s"/>
       <c r="H8" t="s">
         <v>56</v>
       </c>
@@ -2706,19 +2674,13 @@
       <c r="L8" t="s">
         <v>58</v>
       </c>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
       <c r="S8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="n">
-        <v>256833.728631254</v>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>256833.72863125399</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -2747,21 +2709,13 @@
       <c r="J9" t="s">
         <v>27</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
       <c r="R9" t="s">
         <v>65</v>
       </c>
-      <c r="S9" t="s"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="n">
-        <v>236573.5853411294</v>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>236573.58534112939</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -2793,20 +2747,13 @@
       <c r="K10" t="s">
         <v>71</v>
       </c>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
       <c r="S10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="n">
-        <v>227543.8173050243</v>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>227543.81730502431</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -2835,21 +2782,13 @@
       <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
       <c r="S11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="n">
-        <v>208243.8419011344</v>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>208243.84190113441</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -2866,7 +2805,6 @@
       <c r="F12" t="s">
         <v>78</v>
       </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
         <v>34</v>
       </c>
@@ -2876,21 +2814,13 @@
       <c r="J12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="s"/>
       <c r="L12" t="s">
         <v>81</v>
       </c>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="n">
-        <v>172392.3989361392</v>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>172392.39893613919</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -2910,20 +2840,12 @@
       <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="H13" t="s"/>
       <c r="I13" t="s">
         <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
       <c r="R13" t="s">
         <v>87</v>
       </c>
@@ -2931,8 +2853,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="n">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>170248.6288019554</v>
       </c>
       <c r="B14" t="s">
@@ -2953,7 +2875,6 @@
       <c r="G14" t="s">
         <v>92</v>
       </c>
-      <c r="H14" t="s"/>
       <c r="I14" t="s">
         <v>93</v>
       </c>
@@ -2966,13 +2887,9 @@
       <c r="L14" t="s">
         <v>96</v>
       </c>
-      <c r="M14" t="s"/>
       <c r="N14" t="s">
         <v>97</v>
       </c>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
       <c r="R14" t="s">
         <v>98</v>
       </c>
@@ -2980,9 +2897,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="n">
-        <v>162019.9960969049</v>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>162019.99609690491</v>
       </c>
       <c r="B15" t="s">
         <v>99</v>
@@ -2996,11 +2913,9 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>70</v>
       </c>
-      <c r="H15" t="s"/>
       <c r="I15" t="s">
         <v>85</v>
       </c>
@@ -3010,12 +2925,6 @@
       <c r="K15" t="s">
         <v>101</v>
       </c>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
       <c r="R15" t="s">
         <v>102</v>
       </c>
@@ -3023,9 +2932,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="n">
-        <v>158583.9106300058</v>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>158583.91063000579</v>
       </c>
       <c r="B16" t="s">
         <v>104</v>
@@ -3036,7 +2945,6 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>63</v>
       </c>
@@ -3049,20 +2957,12 @@
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
       <c r="R16" t="s">
         <v>106</v>
       </c>
-      <c r="S16" t="s"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" t="n">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>150733.1431112818</v>
       </c>
       <c r="B17" t="s">
@@ -3077,24 +2977,15 @@
       <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F17" t="s"/>
       <c r="G17" t="s">
         <v>63</v>
       </c>
-      <c r="H17" t="s"/>
       <c r="I17" t="s">
         <v>110</v>
       </c>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
       <c r="L17" t="s">
         <v>111</v>
       </c>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
       <c r="R17" t="s">
         <v>112</v>
       </c>
@@ -3102,9 +2993,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" t="n">
-        <v>150036.8426829935</v>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>150036.84268299351</v>
       </c>
       <c r="B18" t="s">
         <v>114</v>
@@ -3118,7 +3009,6 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>70</v>
       </c>
@@ -3134,19 +3024,12 @@
       <c r="K18" t="s">
         <v>116</v>
       </c>
-      <c r="L18" t="s"/>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
       <c r="S18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>148267.4623893392</v>
       </c>
       <c r="B19" t="s">
@@ -3161,32 +3044,22 @@
       <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>120</v>
       </c>
-      <c r="H19" t="s"/>
       <c r="I19" t="s">
         <v>110</v>
       </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
       <c r="L19" t="s">
         <v>121</v>
       </c>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
       <c r="R19" t="s">
         <v>122</v>
       </c>
-      <c r="S19" t="s"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" t="n">
-        <v>147939.4504568543</v>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>147939.45045685431</v>
       </c>
       <c r="B20" t="s">
         <v>123</v>
@@ -3203,28 +3076,19 @@
       <c r="G20" t="s">
         <v>63</v>
       </c>
-      <c r="H20" t="s"/>
       <c r="I20" t="s">
         <v>110</v>
       </c>
       <c r="J20" t="s">
         <v>36</v>
       </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
       <c r="R20" t="s">
         <v>126</v>
       </c>
-      <c r="S20" t="s"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" t="n">
-        <v>142137.7346378561</v>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>142137.73463785611</v>
       </c>
       <c r="B21" t="s">
         <v>127</v>
@@ -3241,7 +3105,6 @@
       <c r="F21" t="s">
         <v>129</v>
       </c>
-      <c r="G21" t="s"/>
       <c r="H21" t="s">
         <v>130</v>
       </c>
@@ -3251,23 +3114,16 @@
       <c r="J21" t="s">
         <v>43</v>
       </c>
-      <c r="K21" t="s"/>
       <c r="L21" t="s">
         <v>131</v>
       </c>
-      <c r="M21" t="s"/>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
       <c r="R21" t="s">
         <v>132</v>
       </c>
-      <c r="S21" t="s"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="n">
-        <v>138562.5556076939</v>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>138562.55560769391</v>
       </c>
       <c r="B22" t="s">
         <v>133</v>
@@ -3281,7 +3137,6 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>33</v>
       </c>
@@ -3300,19 +3155,13 @@
       <c r="L22" t="s">
         <v>137</v>
       </c>
-      <c r="M22" t="s"/>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
       <c r="S22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" t="n">
-        <v>136140.1516128312</v>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>136140.15161283119</v>
       </c>
       <c r="B23" t="s">
         <v>138</v>
@@ -3323,22 +3172,12 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>140</v>
       </c>
-      <c r="H23" t="s"/>
       <c r="I23" t="s">
         <v>110</v>
       </c>
-      <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
       <c r="R23" t="s">
         <v>141</v>
       </c>
@@ -3346,8 +3185,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" t="n">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>129056.3912080124</v>
       </c>
       <c r="B24" t="s">
@@ -3362,26 +3201,15 @@
       <c r="F24" t="s">
         <v>125</v>
       </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s"/>
       <c r="I24" t="s">
         <v>110</v>
       </c>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
       <c r="R24" t="s">
         <v>144</v>
       </c>
-      <c r="S24" t="s"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" t="n">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>127192.5070357997</v>
       </c>
       <c r="B25" t="s">
@@ -3393,7 +3221,6 @@
       <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>33</v>
       </c>
@@ -3409,12 +3236,6 @@
       <c r="K25" t="s">
         <v>149</v>
       </c>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
       <c r="R25" t="s">
         <v>150</v>
       </c>
@@ -3422,9 +3243,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" t="n">
-        <v>122706.1643004251</v>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>122706.16430042509</v>
       </c>
       <c r="B26" t="s">
         <v>151</v>
@@ -3438,7 +3259,6 @@
       <c r="F26" t="s">
         <v>153</v>
       </c>
-      <c r="G26" t="s"/>
       <c r="H26" t="s">
         <v>56</v>
       </c>
@@ -3448,20 +3268,12 @@
       <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
-      <c r="M26" t="s"/>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
       <c r="R26" t="s">
         <v>154</v>
       </c>
-      <c r="S26" t="s"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" t="n">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>121431.5771075392</v>
       </c>
       <c r="B27" t="s">
@@ -3476,7 +3288,6 @@
       <c r="F27" t="s">
         <v>157</v>
       </c>
-      <c r="G27" t="s"/>
       <c r="H27" t="s">
         <v>50</v>
       </c>
@@ -3486,21 +3297,13 @@
       <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
       <c r="R27" t="s">
         <v>158</v>
       </c>
-      <c r="S27" t="s"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" t="n">
-        <v>119800.1055006452</v>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>119800.10550064519</v>
       </c>
       <c r="B28" t="s">
         <v>159</v>
@@ -3514,7 +3317,6 @@
       <c r="F28" t="s">
         <v>161</v>
       </c>
-      <c r="G28" t="s"/>
       <c r="H28" t="s">
         <v>64</v>
       </c>
@@ -3524,20 +3326,12 @@
       <c r="J28" t="s">
         <v>27</v>
       </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
-      <c r="M28" t="s"/>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
       <c r="R28" t="s">
         <v>162</v>
       </c>
-      <c r="S28" t="s"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" t="n">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>119264.7788796331</v>
       </c>
       <c r="B29" t="s">
@@ -3552,7 +3346,6 @@
       <c r="F29" t="s">
         <v>165</v>
       </c>
-      <c r="G29" t="s"/>
       <c r="H29" t="s">
         <v>34</v>
       </c>
@@ -3562,20 +3355,12 @@
       <c r="J29" t="s">
         <v>27</v>
       </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
       <c r="R29" t="s">
         <v>166</v>
       </c>
-      <c r="S29" t="s"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" t="n">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>119264.7788796331</v>
       </c>
       <c r="B30" t="s">
@@ -3590,7 +3375,6 @@
       <c r="F30" t="s">
         <v>169</v>
       </c>
-      <c r="G30" t="s"/>
       <c r="H30" t="s">
         <v>34</v>
       </c>
@@ -3600,20 +3384,12 @@
       <c r="J30" t="s">
         <v>27</v>
       </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
       <c r="R30" t="s">
         <v>170</v>
       </c>
-      <c r="S30" t="s"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" t="n">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>114597.9854182564</v>
       </c>
       <c r="B31" t="s">
@@ -3649,19 +3425,13 @@
       <c r="L31" t="s">
         <v>175</v>
       </c>
-      <c r="M31" t="s"/>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
       <c r="S31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" t="n">
-        <v>114457.3864044374</v>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>114457.38640443741</v>
       </c>
       <c r="B32" t="s">
         <v>176</v>
@@ -3678,7 +3448,6 @@
       <c r="F32" t="s">
         <v>178</v>
       </c>
-      <c r="G32" t="s"/>
       <c r="H32" t="s">
         <v>64</v>
       </c>
@@ -3688,22 +3457,15 @@
       <c r="J32" t="s">
         <v>43</v>
       </c>
-      <c r="K32" t="s"/>
       <c r="L32" t="s">
         <v>179</v>
       </c>
-      <c r="M32" t="s"/>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
       <c r="S32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" t="n">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>114042.6711944626</v>
       </c>
       <c r="B33" t="s">
@@ -3715,8 +3477,6 @@
       <c r="E33" t="s">
         <v>23</v>
       </c>
-      <c r="F33" t="s"/>
-      <c r="G33" t="s"/>
       <c r="H33" t="s">
         <v>34</v>
       </c>
@@ -3726,13 +3486,6 @@
       <c r="J33" t="s">
         <v>94</v>
       </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
       <c r="R33" t="s">
         <v>182</v>
       </c>
@@ -3740,8 +3493,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" t="n">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>113135.3986046908</v>
       </c>
       <c r="B34" t="s">
@@ -3756,33 +3509,24 @@
       <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>186</v>
       </c>
-      <c r="H34" t="s"/>
       <c r="I34" t="s">
         <v>148</v>
       </c>
-      <c r="J34" t="s"/>
       <c r="K34" t="s">
         <v>187</v>
       </c>
       <c r="L34" t="s">
         <v>188</v>
       </c>
-      <c r="M34" t="s"/>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
       <c r="R34" t="s">
         <v>189</v>
       </c>
-      <c r="S34" t="s"/>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" t="n">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>111847.7161416575</v>
       </c>
       <c r="B35" t="s">
@@ -3800,7 +3544,6 @@
       <c r="F35" t="s">
         <v>192</v>
       </c>
-      <c r="G35" t="s"/>
       <c r="H35" t="s">
         <v>34</v>
       </c>
@@ -3810,20 +3553,12 @@
       <c r="J35" t="s">
         <v>43</v>
       </c>
-      <c r="K35" t="s"/>
       <c r="L35" t="s">
         <v>193</v>
       </c>
-      <c r="M35" t="s"/>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" t="n">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>111768.6621607581</v>
       </c>
       <c r="B36" t="s">
@@ -3841,7 +3576,6 @@
       <c r="F36" t="s">
         <v>196</v>
       </c>
-      <c r="G36" t="s"/>
       <c r="H36" t="s">
         <v>34</v>
       </c>
@@ -3851,20 +3585,12 @@
       <c r="J36" t="s">
         <v>94</v>
       </c>
-      <c r="K36" t="s"/>
       <c r="L36" t="s">
         <v>197</v>
       </c>
-      <c r="M36" t="s"/>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" t="n">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>109938.4048792422</v>
       </c>
       <c r="B37" t="s">
@@ -3882,18 +3608,12 @@
       <c r="F37" t="s">
         <v>201</v>
       </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s"/>
       <c r="I37" t="s">
         <v>85</v>
       </c>
-      <c r="J37" t="s"/>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
       <c r="M37" t="s">
         <v>202</v>
       </c>
-      <c r="N37" t="s"/>
       <c r="O37" t="s">
         <v>203</v>
       </c>
@@ -3906,10 +3626,9 @@
       <c r="R37" t="s">
         <v>206</v>
       </c>
-      <c r="S37" t="s"/>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" t="n">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>107773.5108079545</v>
       </c>
       <c r="B38" t="s">
@@ -3924,7 +3643,6 @@
       <c r="F38" t="s">
         <v>209</v>
       </c>
-      <c r="G38" t="s"/>
       <c r="H38" t="s">
         <v>34</v>
       </c>
@@ -3934,19 +3652,10 @@
       <c r="J38" t="s">
         <v>94</v>
       </c>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
-      <c r="M38" t="s"/>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" t="n">
-        <v>107332.1974646714</v>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>107332.19746467139</v>
       </c>
       <c r="B39" t="s">
         <v>210</v>
@@ -3963,7 +3672,6 @@
       <c r="F39" t="s">
         <v>212</v>
       </c>
-      <c r="G39" t="s"/>
       <c r="H39" t="s">
         <v>213</v>
       </c>
@@ -3973,13 +3681,6 @@
       <c r="J39" t="s">
         <v>27</v>
       </c>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
-      <c r="M39" t="s"/>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
       <c r="R39" t="s">
         <v>214</v>
       </c>
@@ -3987,9 +3688,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
-      <c r="A40" t="n">
-        <v>106099.0738731362</v>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>106099.07387313621</v>
       </c>
       <c r="B40" t="s">
         <v>215</v>
@@ -4015,13 +3716,6 @@
       <c r="J40" t="s">
         <v>94</v>
       </c>
-      <c r="K40" t="s"/>
-      <c r="L40" t="s"/>
-      <c r="M40" t="s"/>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
       <c r="R40" t="s">
         <v>219</v>
       </c>
@@ -4029,8 +3723,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
-      <c r="A41" t="n">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>105923.6733757765</v>
       </c>
       <c r="B41" t="s">
@@ -4048,25 +3742,15 @@
       <c r="G41" t="s">
         <v>70</v>
       </c>
-      <c r="H41" t="s"/>
       <c r="I41" t="s">
         <v>110</v>
       </c>
-      <c r="J41" t="s"/>
-      <c r="K41" t="s"/>
-      <c r="L41" t="s"/>
-      <c r="M41" t="s"/>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
       <c r="S41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
-      <c r="A42" t="n">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>105329.749244876</v>
       </c>
       <c r="B42" t="s">
@@ -4084,7 +3768,6 @@
       <c r="F42" t="s">
         <v>226</v>
       </c>
-      <c r="G42" t="s"/>
       <c r="H42" t="s">
         <v>34</v>
       </c>
@@ -4094,15 +3777,9 @@
       <c r="J42" t="s">
         <v>94</v>
       </c>
-      <c r="K42" t="s"/>
       <c r="L42" t="s">
         <v>227</v>
       </c>
-      <c r="M42" t="s"/>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
       <c r="R42" t="s">
         <v>228</v>
       </c>
@@ -4110,9 +3787,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
-      <c r="A43" t="n">
-        <v>103401.2003345114</v>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>103401.20033451141</v>
       </c>
       <c r="B43" t="s">
         <v>229</v>
@@ -4129,7 +3806,6 @@
       <c r="F43" t="s">
         <v>40</v>
       </c>
-      <c r="G43" t="s"/>
       <c r="H43" t="s">
         <v>41</v>
       </c>
@@ -4139,20 +3815,12 @@
       <c r="J43" t="s">
         <v>43</v>
       </c>
-      <c r="K43" t="s"/>
       <c r="L43" t="s">
         <v>231</v>
       </c>
-      <c r="M43" t="s"/>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" t="n">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>103153.5620254266</v>
       </c>
       <c r="B44" t="s">
@@ -4167,7 +3835,6 @@
       <c r="F44" t="s">
         <v>234</v>
       </c>
-      <c r="G44" t="s"/>
       <c r="H44" t="s">
         <v>64</v>
       </c>
@@ -4177,21 +3844,13 @@
       <c r="J44" t="s">
         <v>27</v>
       </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
-      <c r="M44" t="s"/>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
       <c r="R44" t="s">
         <v>235</v>
       </c>
-      <c r="S44" t="s"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" t="n">
-        <v>102796.1475500304</v>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>102796.14755003039</v>
       </c>
       <c r="B45" t="s">
         <v>236</v>
@@ -4205,7 +3864,6 @@
       <c r="F45" t="s">
         <v>238</v>
       </c>
-      <c r="G45" t="s"/>
       <c r="H45" t="s">
         <v>34</v>
       </c>
@@ -4215,13 +3873,6 @@
       <c r="J45" t="s">
         <v>36</v>
       </c>
-      <c r="K45" t="s"/>
-      <c r="L45" t="s"/>
-      <c r="M45" t="s"/>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
       <c r="R45" t="s">
         <v>239</v>
       </c>
@@ -4229,8 +3880,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="A46" t="n">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>102618.2354044145</v>
       </c>
       <c r="B46" t="s">
@@ -4245,7 +3896,6 @@
       <c r="F46" t="s">
         <v>242</v>
       </c>
-      <c r="G46" t="s"/>
       <c r="H46" t="s">
         <v>34</v>
       </c>
@@ -4255,20 +3905,12 @@
       <c r="J46" t="s">
         <v>27</v>
       </c>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
-      <c r="M46" t="s"/>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
       <c r="R46" t="s">
         <v>243</v>
       </c>
-      <c r="S46" t="s"/>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" t="n">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>100767.7114247765</v>
       </c>
       <c r="B47" t="s">
@@ -4280,24 +3922,15 @@
       <c r="E47" t="s">
         <v>23</v>
       </c>
-      <c r="F47" t="s"/>
       <c r="G47" t="s">
         <v>63</v>
       </c>
-      <c r="H47" t="s"/>
       <c r="I47" t="s">
         <v>85</v>
       </c>
-      <c r="J47" t="s"/>
       <c r="K47" t="s">
         <v>246</v>
       </c>
-      <c r="L47" t="s"/>
-      <c r="M47" t="s"/>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
       <c r="R47" t="s">
         <v>247</v>
       </c>
@@ -4305,9 +3938,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
-      <c r="A48" t="n">
-        <v>100232.6988311674</v>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>100232.69883116741</v>
       </c>
       <c r="B48" t="s">
         <v>249</v>
@@ -4336,13 +3969,6 @@
       <c r="J48" t="s">
         <v>36</v>
       </c>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
-      <c r="M48" t="s"/>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
       <c r="R48" t="s">
         <v>252</v>
       </c>
@@ -4350,9 +3976,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49" t="n">
-        <v>99296.82889020369</v>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>99296.828890203687</v>
       </c>
       <c r="B49" t="s">
         <v>253</v>
@@ -4381,23 +4007,16 @@
       <c r="J49" t="s">
         <v>94</v>
       </c>
-      <c r="K49" t="s"/>
       <c r="L49" t="s">
         <v>37</v>
       </c>
-      <c r="M49" t="s"/>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
       <c r="S49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" t="n">
-        <v>98865.96031038427</v>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>98865.960310384267</v>
       </c>
       <c r="B50" t="s">
         <v>256</v>
@@ -4432,18 +4051,12 @@
       <c r="L50" t="s">
         <v>261</v>
       </c>
-      <c r="M50" t="s"/>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
       <c r="S50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
-      <c r="A51" t="n">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>98719.42087679774</v>
       </c>
       <c r="B51" t="s">
@@ -4458,7 +4071,6 @@
       <c r="F51" t="s">
         <v>264</v>
       </c>
-      <c r="G51" t="s"/>
       <c r="H51" t="s">
         <v>34</v>
       </c>
@@ -4468,21 +4080,13 @@
       <c r="J51" t="s">
         <v>94</v>
       </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
-      <c r="M51" t="s"/>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
       <c r="S51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
-      <c r="A52" t="n">
-        <v>98012.78561988687</v>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>98012.785619886869</v>
       </c>
       <c r="B52" t="s">
         <v>265</v>
@@ -4508,13 +4112,6 @@
       <c r="J52" t="s">
         <v>27</v>
       </c>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
-      <c r="M52" t="s"/>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
       <c r="R52" t="s">
         <v>269</v>
       </c>
@@ -4522,9 +4119,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="A53" t="n">
-        <v>96928.85365188021</v>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>96928.853651880214</v>
       </c>
       <c r="B53" t="s">
         <v>270</v>
@@ -4541,7 +4138,6 @@
       <c r="F53" t="s">
         <v>272</v>
       </c>
-      <c r="G53" t="s"/>
       <c r="H53" t="s">
         <v>64</v>
       </c>
@@ -4551,19 +4147,10 @@
       <c r="J53" t="s">
         <v>36</v>
       </c>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
-      <c r="M53" t="s"/>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" t="n">
-        <v>95636.58314070036</v>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>95636.583140700357</v>
       </c>
       <c r="B54" t="s">
         <v>273</v>
@@ -4589,21 +4176,13 @@
       <c r="J54" t="s">
         <v>94</v>
       </c>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
-      <c r="M54" t="s"/>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
       <c r="S54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
-      <c r="A55" t="n">
-        <v>94809.01319371141</v>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>94809.013193711406</v>
       </c>
       <c r="B55" t="s">
         <v>276</v>
@@ -4620,7 +4199,6 @@
       <c r="F55" t="s">
         <v>278</v>
       </c>
-      <c r="G55" t="s"/>
       <c r="H55" t="s">
         <v>50</v>
       </c>
@@ -4630,21 +4208,13 @@
       <c r="J55" t="s">
         <v>27</v>
       </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
-      <c r="M55" t="s"/>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
       <c r="R55" t="s">
         <v>279</v>
       </c>
-      <c r="S55" t="s"/>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" t="n">
-        <v>93705.55149308371</v>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>93705.551493083709</v>
       </c>
       <c r="B56" t="s">
         <v>280</v>
@@ -4661,7 +4231,6 @@
       <c r="F56" t="s">
         <v>282</v>
       </c>
-      <c r="G56" t="s"/>
       <c r="H56" t="s">
         <v>34</v>
       </c>
@@ -4674,18 +4243,10 @@
       <c r="K56" t="s">
         <v>283</v>
       </c>
-      <c r="L56" t="s"/>
-      <c r="M56" t="s"/>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" t="n">
-        <v>93594.99278777016</v>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>93594.992787770156</v>
       </c>
       <c r="B57" t="s">
         <v>284</v>
@@ -4702,7 +4263,6 @@
       <c r="F57" t="s">
         <v>286</v>
       </c>
-      <c r="G57" t="s"/>
       <c r="H57" t="s">
         <v>34</v>
       </c>
@@ -4715,20 +4275,13 @@
       <c r="K57" t="s">
         <v>287</v>
       </c>
-      <c r="L57" t="s"/>
-      <c r="M57" t="s"/>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
       <c r="S57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
-      <c r="A58" t="n">
-        <v>92727.51393423605</v>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>92727.513934236049</v>
       </c>
       <c r="B58" t="s">
         <v>288</v>
@@ -4748,7 +4301,6 @@
       <c r="G58" t="s">
         <v>63</v>
       </c>
-      <c r="H58" t="s"/>
       <c r="I58" t="s">
         <v>93</v>
       </c>
@@ -4758,18 +4310,10 @@
       <c r="K58" t="s">
         <v>291</v>
       </c>
-      <c r="L58" t="s"/>
-      <c r="M58" t="s"/>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" t="n">
-        <v>92642.21496580538</v>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>92642.214965805382</v>
       </c>
       <c r="B59" t="s">
         <v>292</v>
@@ -4783,7 +4327,6 @@
       <c r="F59" t="s">
         <v>294</v>
       </c>
-      <c r="G59" t="s"/>
       <c r="H59" t="s">
         <v>34</v>
       </c>
@@ -4793,21 +4336,13 @@
       <c r="J59" t="s">
         <v>27</v>
       </c>
-      <c r="K59" t="s"/>
-      <c r="L59" t="s"/>
-      <c r="M59" t="s"/>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
       <c r="R59" t="s">
         <v>295</v>
       </c>
-      <c r="S59" t="s"/>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" t="n">
-        <v>92353.00318315756</v>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>92353.003183157562</v>
       </c>
       <c r="B60" t="s">
         <v>296</v>
@@ -4842,19 +4377,13 @@
       <c r="L60" t="s">
         <v>300</v>
       </c>
-      <c r="M60" t="s"/>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
       <c r="S60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
-      <c r="A61" t="n">
-        <v>92139.16299688032</v>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>92139.162996880317</v>
       </c>
       <c r="B61" t="s">
         <v>301</v>
@@ -4871,7 +4400,6 @@
       <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="G61" t="s"/>
       <c r="H61" t="s">
         <v>259</v>
       </c>
@@ -4881,23 +4409,16 @@
       <c r="J61" t="s">
         <v>94</v>
       </c>
-      <c r="K61" t="s"/>
       <c r="L61" t="s">
         <v>304</v>
       </c>
-      <c r="M61" t="s"/>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
       <c r="S61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
-      <c r="A62" t="n">
-        <v>89256.95103086274</v>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>89256.951030862736</v>
       </c>
       <c r="B62" t="s">
         <v>305</v>
@@ -4914,7 +4435,6 @@
       <c r="F62" t="s">
         <v>32</v>
       </c>
-      <c r="G62" t="s"/>
       <c r="H62" t="s">
         <v>34</v>
       </c>
@@ -4930,19 +4450,13 @@
       <c r="L62" t="s">
         <v>308</v>
       </c>
-      <c r="M62" t="s"/>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
       <c r="S62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
-      <c r="A63" t="n">
-        <v>88834.84829968796</v>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>88834.848299687961</v>
       </c>
       <c r="B63" t="s">
         <v>309</v>
@@ -4956,32 +4470,22 @@
       <c r="E63" t="s">
         <v>23</v>
       </c>
-      <c r="F63" t="s"/>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s"/>
       <c r="I63" t="s">
         <v>148</v>
       </c>
       <c r="J63" t="s">
         <v>36</v>
       </c>
-      <c r="K63" t="s"/>
-      <c r="L63" t="s"/>
-      <c r="M63" t="s"/>
       <c r="N63" t="s">
         <v>312</v>
       </c>
-      <c r="O63" t="s"/>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
       <c r="R63" t="s">
         <v>313</v>
       </c>
-      <c r="S63" t="s"/>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" t="n">
-        <v>88703.44492840566</v>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>88703.444928405661</v>
       </c>
       <c r="B64" t="s">
         <v>314</v>
@@ -4995,7 +4499,6 @@
       <c r="F64" t="s">
         <v>316</v>
       </c>
-      <c r="G64" t="s"/>
       <c r="H64" t="s">
         <v>34</v>
       </c>
@@ -5005,21 +4508,13 @@
       <c r="J64" t="s">
         <v>94</v>
       </c>
-      <c r="K64" t="s"/>
-      <c r="L64" t="s"/>
-      <c r="M64" t="s"/>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
       <c r="R64" t="s">
         <v>317</v>
       </c>
-      <c r="S64" t="s"/>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" t="n">
-        <v>87345.51992775443</v>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>87345.519927754431</v>
       </c>
       <c r="B65" t="s">
         <v>318</v>
@@ -5036,7 +4531,6 @@
       <c r="F65" t="s">
         <v>226</v>
       </c>
-      <c r="G65" t="s"/>
       <c r="H65" t="s">
         <v>34</v>
       </c>
@@ -5046,15 +4540,9 @@
       <c r="J65" t="s">
         <v>94</v>
       </c>
-      <c r="K65" t="s"/>
       <c r="L65" t="s">
         <v>320</v>
       </c>
-      <c r="M65" t="s"/>
-      <c r="N65" t="s"/>
-      <c r="O65" t="s"/>
-      <c r="P65" t="s"/>
-      <c r="Q65" t="s"/>
       <c r="R65" t="s">
         <v>228</v>
       </c>
@@ -5062,9 +4550,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
-      <c r="A66" t="n">
-        <v>87121.6196538849</v>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>87121.619653884904</v>
       </c>
       <c r="B66" t="s">
         <v>321</v>
@@ -5093,25 +4581,19 @@
       <c r="J66" t="s">
         <v>27</v>
       </c>
-      <c r="K66" t="s"/>
       <c r="L66" t="s">
         <v>324</v>
       </c>
-      <c r="M66" t="s"/>
-      <c r="N66" t="s"/>
       <c r="O66" t="s">
         <v>325</v>
       </c>
-      <c r="P66" t="s"/>
-      <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
       <c r="S66" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
-      <c r="A67" t="n">
-        <v>87040.77485530413</v>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>87040.774855304131</v>
       </c>
       <c r="B67" t="s">
         <v>327</v>
@@ -5125,7 +4607,6 @@
       <c r="F67" t="s">
         <v>286</v>
       </c>
-      <c r="G67" t="s"/>
       <c r="H67" t="s">
         <v>34</v>
       </c>
@@ -5135,21 +4616,13 @@
       <c r="J67" t="s">
         <v>94</v>
       </c>
-      <c r="K67" t="s"/>
-      <c r="L67" t="s"/>
-      <c r="M67" t="s"/>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
-      <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
       <c r="R67" t="s">
         <v>329</v>
       </c>
-      <c r="S67" t="s"/>
-    </row>
-    <row r="68" spans="1:19">
-      <c r="A68" t="n">
-        <v>86840.4920251728</v>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>86840.492025172804</v>
       </c>
       <c r="B68" t="s">
         <v>330</v>
@@ -5166,7 +4639,6 @@
       <c r="F68" t="s">
         <v>332</v>
       </c>
-      <c r="G68" t="s"/>
       <c r="H68" t="s">
         <v>41</v>
       </c>
@@ -5176,13 +4648,6 @@
       <c r="J68" t="s">
         <v>94</v>
       </c>
-      <c r="K68" t="s"/>
-      <c r="L68" t="s"/>
-      <c r="M68" t="s"/>
-      <c r="N68" t="s"/>
-      <c r="O68" t="s"/>
-      <c r="P68" t="s"/>
-      <c r="Q68" t="s"/>
       <c r="R68" t="s">
         <v>333</v>
       </c>
@@ -5190,9 +4655,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
-      <c r="A69" t="n">
-        <v>85583.9237142292</v>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>85583.923714229197</v>
       </c>
       <c r="B69" t="s">
         <v>334</v>
@@ -5206,7 +4671,6 @@
       <c r="F69" t="s">
         <v>336</v>
       </c>
-      <c r="G69" t="s"/>
       <c r="H69" t="s">
         <v>50</v>
       </c>
@@ -5216,19 +4680,10 @@
       <c r="J69" t="s">
         <v>27</v>
       </c>
-      <c r="K69" t="s"/>
-      <c r="L69" t="s"/>
-      <c r="M69" t="s"/>
-      <c r="N69" t="s"/>
-      <c r="O69" t="s"/>
-      <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
-      <c r="R69" t="s"/>
-      <c r="S69" t="s"/>
-    </row>
-    <row r="70" spans="1:19">
-      <c r="A70" t="n">
-        <v>85531.79922388222</v>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>85531.799223882219</v>
       </c>
       <c r="B70" t="s">
         <v>337</v>
@@ -5239,24 +4694,15 @@
       <c r="E70" t="s">
         <v>23</v>
       </c>
-      <c r="F70" t="s"/>
       <c r="G70" t="s">
         <v>33</v>
       </c>
-      <c r="H70" t="s"/>
       <c r="I70" t="s">
         <v>148</v>
       </c>
-      <c r="J70" t="s"/>
       <c r="K70" t="s">
         <v>339</v>
       </c>
-      <c r="L70" t="s"/>
-      <c r="M70" t="s"/>
-      <c r="N70" t="s"/>
-      <c r="O70" t="s"/>
-      <c r="P70" t="s"/>
-      <c r="Q70" t="s"/>
       <c r="R70" t="s">
         <v>340</v>
       </c>
@@ -5264,9 +4710,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
-      <c r="A71" t="n">
-        <v>85110.51038644461</v>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>85110.510386444614</v>
       </c>
       <c r="B71" t="s">
         <v>341</v>
@@ -5283,7 +4729,6 @@
       <c r="F71" t="s">
         <v>343</v>
       </c>
-      <c r="G71" t="s"/>
       <c r="H71" t="s">
         <v>64</v>
       </c>
@@ -5293,18 +4738,9 @@
       <c r="J71" t="s">
         <v>43</v>
       </c>
-      <c r="K71" t="s"/>
-      <c r="L71" t="s"/>
-      <c r="M71" t="s"/>
-      <c r="N71" t="s"/>
-      <c r="O71" t="s"/>
-      <c r="P71" t="s"/>
-      <c r="Q71" t="s"/>
-      <c r="R71" t="s"/>
-      <c r="S71" t="s"/>
-    </row>
-    <row r="72" spans="1:19">
-      <c r="A72" t="n">
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>85091.72123481537</v>
       </c>
       <c r="B72" t="s">
@@ -5340,19 +4776,13 @@
       <c r="L72" t="s">
         <v>348</v>
       </c>
-      <c r="M72" t="s"/>
-      <c r="N72" t="s"/>
-      <c r="O72" t="s"/>
-      <c r="P72" t="s"/>
-      <c r="Q72" t="s"/>
-      <c r="R72" t="s"/>
       <c r="S72" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
-      <c r="A73" t="n">
-        <v>84027.98578875446</v>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>84027.985788754464</v>
       </c>
       <c r="B73" t="s">
         <v>349</v>
@@ -5366,7 +4796,6 @@
       <c r="F73" t="s">
         <v>238</v>
       </c>
-      <c r="G73" t="s"/>
       <c r="H73" t="s">
         <v>34</v>
       </c>
@@ -5376,13 +4805,6 @@
       <c r="J73" t="s">
         <v>36</v>
       </c>
-      <c r="K73" t="s"/>
-      <c r="L73" t="s"/>
-      <c r="M73" t="s"/>
-      <c r="N73" t="s"/>
-      <c r="O73" t="s"/>
-      <c r="P73" t="s"/>
-      <c r="Q73" t="s"/>
       <c r="R73" t="s">
         <v>351</v>
       </c>
@@ -5390,8 +4812,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
-      <c r="A74" t="n">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>83978.83986324392</v>
       </c>
       <c r="B74" t="s">
@@ -5409,18 +4831,9 @@
       <c r="G74" t="s">
         <v>33</v>
       </c>
-      <c r="H74" t="s"/>
       <c r="I74" t="s">
         <v>85</v>
       </c>
-      <c r="J74" t="s"/>
-      <c r="K74" t="s"/>
-      <c r="L74" t="s"/>
-      <c r="M74" t="s"/>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
-      <c r="P74" t="s"/>
-      <c r="Q74" t="s"/>
       <c r="R74" t="s">
         <v>355</v>
       </c>
@@ -5428,9 +4841,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
-      <c r="A75" t="n">
-        <v>83909.80804014675</v>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>83909.808040146745</v>
       </c>
       <c r="B75" t="s">
         <v>357</v>
@@ -5444,7 +4857,6 @@
       <c r="F75" t="s">
         <v>359</v>
       </c>
-      <c r="G75" t="s"/>
       <c r="H75" t="s">
         <v>34</v>
       </c>
@@ -5454,13 +4866,6 @@
       <c r="J75" t="s">
         <v>27</v>
       </c>
-      <c r="K75" t="s"/>
-      <c r="L75" t="s"/>
-      <c r="M75" t="s"/>
-      <c r="N75" t="s"/>
-      <c r="O75" t="s"/>
-      <c r="P75" t="s"/>
-      <c r="Q75" t="s"/>
       <c r="R75" t="s">
         <v>360</v>
       </c>
@@ -5468,9 +4873,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
-      <c r="A76" t="n">
-        <v>83417.12548632316</v>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>83417.125486323159</v>
       </c>
       <c r="B76" t="s">
         <v>361</v>
@@ -5487,7 +4892,6 @@
       <c r="F76" t="s">
         <v>363</v>
       </c>
-      <c r="G76" t="s"/>
       <c r="H76" t="s">
         <v>34</v>
       </c>
@@ -5497,19 +4901,10 @@
       <c r="J76" t="s">
         <v>27</v>
       </c>
-      <c r="K76" t="s"/>
-      <c r="L76" t="s"/>
-      <c r="M76" t="s"/>
-      <c r="N76" t="s"/>
-      <c r="O76" t="s"/>
-      <c r="P76" t="s"/>
-      <c r="Q76" t="s"/>
-      <c r="R76" t="s"/>
-      <c r="S76" t="s"/>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="A77" t="n">
-        <v>83236.64375194188</v>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>83236.643751941883</v>
       </c>
       <c r="B77" t="s">
         <v>364</v>
@@ -5523,7 +4918,6 @@
       <c r="F77" t="s">
         <v>366</v>
       </c>
-      <c r="G77" t="s"/>
       <c r="H77" t="s">
         <v>34</v>
       </c>
@@ -5533,21 +4927,13 @@
       <c r="J77" t="s">
         <v>94</v>
       </c>
-      <c r="K77" t="s"/>
-      <c r="L77" t="s"/>
-      <c r="M77" t="s"/>
-      <c r="N77" t="s"/>
-      <c r="O77" t="s"/>
-      <c r="P77" t="s"/>
-      <c r="Q77" t="s"/>
       <c r="R77" t="s">
         <v>367</v>
       </c>
-      <c r="S77" t="s"/>
-    </row>
-    <row r="78" spans="1:19">
-      <c r="A78" t="n">
-        <v>83236.64375194188</v>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>83236.643751941883</v>
       </c>
       <c r="B78" t="s">
         <v>368</v>
@@ -5561,7 +4947,6 @@
       <c r="F78" t="s">
         <v>370</v>
       </c>
-      <c r="G78" t="s"/>
       <c r="H78" t="s">
         <v>34</v>
       </c>
@@ -5571,21 +4956,13 @@
       <c r="J78" t="s">
         <v>94</v>
       </c>
-      <c r="K78" t="s"/>
-      <c r="L78" t="s"/>
-      <c r="M78" t="s"/>
-      <c r="N78" t="s"/>
-      <c r="O78" t="s"/>
-      <c r="P78" t="s"/>
-      <c r="Q78" t="s"/>
       <c r="R78" t="s">
         <v>371</v>
       </c>
-      <c r="S78" t="s"/>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="A79" t="n">
-        <v>83165.78967831029</v>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>83165.789678310291</v>
       </c>
       <c r="B79" t="s">
         <v>372</v>
@@ -5599,7 +4976,6 @@
       <c r="F79" t="s">
         <v>238</v>
       </c>
-      <c r="G79" t="s"/>
       <c r="H79" t="s">
         <v>34</v>
       </c>
@@ -5609,13 +4985,6 @@
       <c r="J79" t="s">
         <v>36</v>
       </c>
-      <c r="K79" t="s"/>
-      <c r="L79" t="s"/>
-      <c r="M79" t="s"/>
-      <c r="N79" t="s"/>
-      <c r="O79" t="s"/>
-      <c r="P79" t="s"/>
-      <c r="Q79" t="s"/>
       <c r="R79" t="s">
         <v>374</v>
       </c>
@@ -5623,9 +4992,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
-      <c r="A80" t="n">
-        <v>81992.07148363194</v>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>81992.071483631938</v>
       </c>
       <c r="B80" t="s">
         <v>375</v>
@@ -5639,29 +5008,19 @@
       <c r="F80" t="s">
         <v>377</v>
       </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s"/>
       <c r="I80" t="s">
         <v>85</v>
       </c>
       <c r="J80" t="s">
         <v>94</v>
       </c>
-      <c r="K80" t="s"/>
-      <c r="L80" t="s"/>
-      <c r="M80" t="s"/>
-      <c r="N80" t="s"/>
-      <c r="O80" t="s"/>
-      <c r="P80" t="s"/>
-      <c r="Q80" t="s"/>
       <c r="R80" t="s">
         <v>378</v>
       </c>
-      <c r="S80" t="s"/>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" t="n">
-        <v>81230.00087502605</v>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81230.000875026046</v>
       </c>
       <c r="B81" t="s">
         <v>379</v>
@@ -5678,7 +5037,6 @@
       <c r="F81" t="s">
         <v>381</v>
       </c>
-      <c r="G81" t="s"/>
       <c r="H81" t="s">
         <v>34</v>
       </c>
@@ -5688,19 +5046,10 @@
       <c r="J81" t="s">
         <v>43</v>
       </c>
-      <c r="K81" t="s"/>
-      <c r="L81" t="s"/>
-      <c r="M81" t="s"/>
-      <c r="N81" t="s"/>
-      <c r="O81" t="s"/>
-      <c r="P81" t="s"/>
-      <c r="Q81" t="s"/>
-      <c r="R81" t="s"/>
-      <c r="S81" t="s"/>
-    </row>
-    <row r="82" spans="1:19">
-      <c r="A82" t="n">
-        <v>81229.61493068337</v>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81229.614930683369</v>
       </c>
       <c r="B82" t="s">
         <v>382</v>
@@ -5729,23 +5078,16 @@
       <c r="J82" t="s">
         <v>94</v>
       </c>
-      <c r="K82" t="s"/>
       <c r="L82" t="s">
         <v>386</v>
       </c>
-      <c r="M82" t="s"/>
-      <c r="N82" t="s"/>
-      <c r="O82" t="s"/>
-      <c r="P82" t="s"/>
-      <c r="Q82" t="s"/>
-      <c r="R82" t="s"/>
       <c r="S82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
-      <c r="A83" t="n">
-        <v>80809.72838719896</v>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80809.728387198964</v>
       </c>
       <c r="B83" t="s">
         <v>387</v>
@@ -5774,21 +5116,13 @@
       <c r="J83" t="s">
         <v>94</v>
       </c>
-      <c r="K83" t="s"/>
       <c r="L83" t="s">
         <v>389</v>
       </c>
-      <c r="M83" t="s"/>
-      <c r="N83" t="s"/>
-      <c r="O83" t="s"/>
-      <c r="P83" t="s"/>
-      <c r="Q83" t="s"/>
-      <c r="R83" t="s"/>
-      <c r="S83" t="s"/>
-    </row>
-    <row r="84" spans="1:19">
-      <c r="A84" t="n">
-        <v>80784.42729250669</v>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>80784.427292506691</v>
       </c>
       <c r="B84" t="s">
         <v>390</v>
@@ -5814,22 +5148,13 @@
       <c r="I84" t="s">
         <v>85</v>
       </c>
-      <c r="J84" t="s"/>
-      <c r="K84" t="s"/>
-      <c r="L84" t="s"/>
-      <c r="M84" t="s"/>
-      <c r="N84" t="s"/>
-      <c r="O84" t="s"/>
-      <c r="P84" t="s"/>
-      <c r="Q84" t="s"/>
       <c r="R84" t="s">
         <v>393</v>
       </c>
-      <c r="S84" t="s"/>
-    </row>
-    <row r="85" spans="1:19">
-      <c r="A85" t="n">
-        <v>80394.72451258445</v>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>80394.724512584449</v>
       </c>
       <c r="B85" t="s">
         <v>394</v>
@@ -5840,22 +5165,12 @@
       <c r="E85" t="s">
         <v>23</v>
       </c>
-      <c r="F85" t="s"/>
       <c r="G85" t="s">
         <v>63</v>
       </c>
-      <c r="H85" t="s"/>
       <c r="I85" t="s">
         <v>93</v>
       </c>
-      <c r="J85" t="s"/>
-      <c r="K85" t="s"/>
-      <c r="L85" t="s"/>
-      <c r="M85" t="s"/>
-      <c r="N85" t="s"/>
-      <c r="O85" t="s"/>
-      <c r="P85" t="s"/>
-      <c r="Q85" t="s"/>
       <c r="R85" t="s">
         <v>396</v>
       </c>
@@ -5863,9 +5178,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
-      <c r="A86" t="n">
-        <v>80231.38343642623</v>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>80231.383436426229</v>
       </c>
       <c r="B86" t="s">
         <v>397</v>
@@ -5885,18 +5200,9 @@
       <c r="G86" t="s">
         <v>33</v>
       </c>
-      <c r="H86" t="s"/>
       <c r="I86" t="s">
         <v>148</v>
       </c>
-      <c r="J86" t="s"/>
-      <c r="K86" t="s"/>
-      <c r="L86" t="s"/>
-      <c r="M86" t="s"/>
-      <c r="N86" t="s"/>
-      <c r="O86" t="s"/>
-      <c r="P86" t="s"/>
-      <c r="Q86" t="s"/>
       <c r="R86" t="s">
         <v>401</v>
       </c>
@@ -5904,9 +5210,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
-      <c r="A87" t="n">
-        <v>80128.08525106689</v>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>80128.085251066892</v>
       </c>
       <c r="B87" t="s">
         <v>402</v>
@@ -5923,29 +5229,19 @@
       <c r="F87" t="s">
         <v>404</v>
       </c>
-      <c r="G87" t="s"/>
       <c r="H87" t="s">
         <v>268</v>
       </c>
       <c r="I87" t="s">
         <v>93</v>
       </c>
-      <c r="J87" t="s"/>
-      <c r="K87" t="s"/>
       <c r="L87" t="s">
         <v>405</v>
       </c>
-      <c r="M87" t="s"/>
-      <c r="N87" t="s"/>
-      <c r="O87" t="s"/>
-      <c r="P87" t="s"/>
-      <c r="Q87" t="s"/>
-      <c r="R87" t="s"/>
-      <c r="S87" t="s"/>
-    </row>
-    <row r="88" spans="1:19">
-      <c r="A88" t="n">
-        <v>79987.43118105565</v>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>79987.431181055654</v>
       </c>
       <c r="B88" t="s">
         <v>406</v>
@@ -5959,7 +5255,6 @@
       <c r="E88" t="s">
         <v>23</v>
       </c>
-      <c r="F88" t="s"/>
       <c r="G88" t="s">
         <v>33</v>
       </c>
@@ -5972,13 +5267,6 @@
       <c r="J88" t="s">
         <v>36</v>
       </c>
-      <c r="K88" t="s"/>
-      <c r="L88" t="s"/>
-      <c r="M88" t="s"/>
-      <c r="N88" t="s"/>
-      <c r="O88" t="s"/>
-      <c r="P88" t="s"/>
-      <c r="Q88" t="s"/>
       <c r="R88" t="s">
         <v>325</v>
       </c>
@@ -5986,9 +5274,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
-      <c r="A89" t="n">
-        <v>79132.64581936139</v>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>79132.645819361394</v>
       </c>
       <c r="B89" t="s">
         <v>408</v>
@@ -6002,27 +5290,16 @@
       <c r="F89" t="s">
         <v>410</v>
       </c>
-      <c r="G89" t="s"/>
       <c r="H89" t="s">
         <v>64</v>
       </c>
       <c r="I89" t="s">
         <v>79</v>
       </c>
-      <c r="J89" t="s"/>
-      <c r="K89" t="s"/>
-      <c r="L89" t="s"/>
-      <c r="M89" t="s"/>
-      <c r="N89" t="s"/>
-      <c r="O89" t="s"/>
-      <c r="P89" t="s"/>
-      <c r="Q89" t="s"/>
-      <c r="R89" t="s"/>
-      <c r="S89" t="s"/>
-    </row>
-    <row r="90" spans="1:19">
-      <c r="A90" t="n">
-        <v>78362.36177509496</v>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>78362.361775094963</v>
       </c>
       <c r="B90" t="s">
         <v>411</v>
@@ -6039,7 +5316,6 @@
       <c r="F90" t="s">
         <v>413</v>
       </c>
-      <c r="G90" t="s"/>
       <c r="H90" t="s">
         <v>130</v>
       </c>
@@ -6049,21 +5325,13 @@
       <c r="J90" t="s">
         <v>27</v>
       </c>
-      <c r="K90" t="s"/>
-      <c r="L90" t="s"/>
-      <c r="M90" t="s"/>
-      <c r="N90" t="s"/>
-      <c r="O90" t="s"/>
-      <c r="P90" t="s"/>
-      <c r="Q90" t="s"/>
-      <c r="R90" t="s"/>
       <c r="S90" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
-      <c r="A91" t="n">
-        <v>76965.94453113285</v>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>76965.944531132845</v>
       </c>
       <c r="B91" t="s">
         <v>414</v>
@@ -6077,7 +5345,6 @@
       <c r="E91" t="s">
         <v>23</v>
       </c>
-      <c r="F91" t="s"/>
       <c r="G91" t="s">
         <v>416</v>
       </c>
@@ -6093,20 +5360,13 @@
       <c r="K91" t="s">
         <v>417</v>
       </c>
-      <c r="L91" t="s"/>
-      <c r="M91" t="s"/>
-      <c r="N91" t="s"/>
-      <c r="O91" t="s"/>
-      <c r="P91" t="s"/>
-      <c r="Q91" t="s"/>
       <c r="R91" t="s">
         <v>418</v>
       </c>
-      <c r="S91" t="s"/>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="A92" t="n">
-        <v>76050.77531049395</v>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>76050.775310493947</v>
       </c>
       <c r="B92" t="s">
         <v>419</v>
@@ -6120,7 +5380,6 @@
       <c r="F92" t="s">
         <v>421</v>
       </c>
-      <c r="G92" t="s"/>
       <c r="H92" t="s">
         <v>64</v>
       </c>
@@ -6130,21 +5389,13 @@
       <c r="J92" t="s">
         <v>27</v>
       </c>
-      <c r="K92" t="s"/>
-      <c r="L92" t="s"/>
-      <c r="M92" t="s"/>
-      <c r="N92" t="s"/>
-      <c r="O92" t="s"/>
-      <c r="P92" t="s"/>
-      <c r="Q92" t="s"/>
-      <c r="R92" t="s"/>
       <c r="S92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
-      <c r="A93" t="n">
-        <v>73924.63732765018</v>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>73924.637327650184</v>
       </c>
       <c r="B93" t="s">
         <v>422</v>
@@ -6158,7 +5409,6 @@
       <c r="F93" t="s">
         <v>424</v>
       </c>
-      <c r="G93" t="s"/>
       <c r="H93" t="s">
         <v>64</v>
       </c>
@@ -6168,21 +5418,13 @@
       <c r="J93" t="s">
         <v>27</v>
       </c>
-      <c r="K93" t="s"/>
-      <c r="L93" t="s"/>
-      <c r="M93" t="s"/>
-      <c r="N93" t="s"/>
-      <c r="O93" t="s"/>
-      <c r="P93" t="s"/>
-      <c r="Q93" t="s"/>
-      <c r="R93" t="s"/>
       <c r="S93" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
-      <c r="A94" t="n">
-        <v>72426.31250641594</v>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>72426.312506415939</v>
       </c>
       <c r="B94" t="s">
         <v>426</v>
@@ -6193,8 +5435,6 @@
       <c r="E94" t="s">
         <v>23</v>
       </c>
-      <c r="F94" t="s"/>
-      <c r="G94" t="s"/>
       <c r="H94" t="s">
         <v>34</v>
       </c>
@@ -6204,13 +5444,6 @@
       <c r="J94" t="s">
         <v>94</v>
       </c>
-      <c r="K94" t="s"/>
-      <c r="L94" t="s"/>
-      <c r="M94" t="s"/>
-      <c r="N94" t="s"/>
-      <c r="O94" t="s"/>
-      <c r="P94" t="s"/>
-      <c r="Q94" t="s"/>
       <c r="R94" t="s">
         <v>182</v>
       </c>
@@ -6218,9 +5451,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
-      <c r="A95" t="n">
-        <v>71665.52874367684</v>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>71665.528743676841</v>
       </c>
       <c r="B95" t="s">
         <v>428</v>
@@ -6249,21 +5482,13 @@
       <c r="J95" t="s">
         <v>27</v>
       </c>
-      <c r="K95" t="s"/>
-      <c r="L95" t="s"/>
-      <c r="M95" t="s"/>
-      <c r="N95" t="s"/>
-      <c r="O95" t="s"/>
-      <c r="P95" t="s"/>
-      <c r="Q95" t="s"/>
       <c r="R95" t="s">
         <v>418</v>
       </c>
-      <c r="S95" t="s"/>
-    </row>
-    <row r="96" spans="1:19">
-      <c r="A96" t="n">
-        <v>70976.71974762798</v>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>70976.719747627983</v>
       </c>
       <c r="B96" t="s">
         <v>431</v>
@@ -6277,7 +5502,6 @@
       <c r="F96" t="s">
         <v>433</v>
       </c>
-      <c r="G96" t="s"/>
       <c r="H96" t="s">
         <v>268</v>
       </c>
@@ -6287,19 +5511,10 @@
       <c r="J96" t="s">
         <v>27</v>
       </c>
-      <c r="K96" t="s"/>
-      <c r="L96" t="s"/>
-      <c r="M96" t="s"/>
-      <c r="N96" t="s"/>
-      <c r="O96" t="s"/>
-      <c r="P96" t="s"/>
-      <c r="Q96" t="s"/>
-      <c r="R96" t="s"/>
-      <c r="S96" t="s"/>
-    </row>
-    <row r="97" spans="1:19">
-      <c r="A97" t="n">
-        <v>70698.97645253578</v>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>70698.976452535775</v>
       </c>
       <c r="B97" t="s">
         <v>434</v>
@@ -6316,7 +5531,6 @@
       <c r="F97" t="s">
         <v>226</v>
       </c>
-      <c r="G97" t="s"/>
       <c r="H97" t="s">
         <v>34</v>
       </c>
@@ -6326,15 +5540,9 @@
       <c r="J97" t="s">
         <v>94</v>
       </c>
-      <c r="K97" t="s"/>
       <c r="L97" t="s">
         <v>436</v>
       </c>
-      <c r="M97" t="s"/>
-      <c r="N97" t="s"/>
-      <c r="O97" t="s"/>
-      <c r="P97" t="s"/>
-      <c r="Q97" t="s"/>
       <c r="R97" t="s">
         <v>228</v>
       </c>
@@ -6342,9 +5550,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
-      <c r="A98" t="n">
-        <v>69388.91417110797</v>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>69388.914171107972</v>
       </c>
       <c r="B98" t="s">
         <v>437</v>
@@ -6358,7 +5566,6 @@
       <c r="F98" t="s">
         <v>282</v>
       </c>
-      <c r="G98" t="s"/>
       <c r="H98" t="s">
         <v>34</v>
       </c>
@@ -6368,13 +5575,6 @@
       <c r="J98" t="s">
         <v>27</v>
       </c>
-      <c r="K98" t="s"/>
-      <c r="L98" t="s"/>
-      <c r="M98" t="s"/>
-      <c r="N98" t="s"/>
-      <c r="O98" t="s"/>
-      <c r="P98" t="s"/>
-      <c r="Q98" t="s"/>
       <c r="R98" t="s">
         <v>439</v>
       </c>
@@ -6382,9 +5582,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
-      <c r="A99" t="n">
-        <v>68615.31288041492</v>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>68615.312880414916</v>
       </c>
       <c r="B99" t="s">
         <v>440</v>
@@ -6395,7 +5595,6 @@
       <c r="E99" t="s">
         <v>23</v>
       </c>
-      <c r="F99" t="s"/>
       <c r="G99" t="s">
         <v>33</v>
       </c>
@@ -6405,14 +5604,6 @@
       <c r="I99" t="s">
         <v>85</v>
       </c>
-      <c r="J99" t="s"/>
-      <c r="K99" t="s"/>
-      <c r="L99" t="s"/>
-      <c r="M99" t="s"/>
-      <c r="N99" t="s"/>
-      <c r="O99" t="s"/>
-      <c r="P99" t="s"/>
-      <c r="Q99" t="s"/>
       <c r="R99" t="s">
         <v>442</v>
       </c>
@@ -6420,9 +5611,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
-      <c r="A100" t="n">
-        <v>68225.03032146723</v>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>68225.030321467231</v>
       </c>
       <c r="B100" t="s">
         <v>443</v>
@@ -6436,32 +5627,22 @@
       <c r="E100" t="s">
         <v>23</v>
       </c>
-      <c r="F100" t="s"/>
       <c r="G100" t="s">
         <v>33</v>
       </c>
-      <c r="H100" t="s"/>
       <c r="I100" t="s">
         <v>148</v>
       </c>
-      <c r="J100" t="s"/>
-      <c r="K100" t="s"/>
-      <c r="L100" t="s"/>
-      <c r="M100" t="s"/>
-      <c r="N100" t="s"/>
-      <c r="O100" t="s"/>
-      <c r="P100" t="s"/>
       <c r="Q100" t="s">
         <v>445</v>
       </c>
       <c r="R100" t="s">
         <v>446</v>
       </c>
-      <c r="S100" t="s"/>
-    </row>
-    <row r="101" spans="1:19">
-      <c r="A101" t="n">
-        <v>68023.84687478069</v>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>68023.846874780691</v>
       </c>
       <c r="B101" t="s">
         <v>447</v>
@@ -6475,7 +5656,6 @@
       <c r="F101" t="s">
         <v>282</v>
       </c>
-      <c r="G101" t="s"/>
       <c r="H101" t="s">
         <v>34</v>
       </c>
@@ -6485,20 +5665,12 @@
       <c r="J101" t="s">
         <v>27</v>
       </c>
-      <c r="K101" t="s"/>
-      <c r="L101" t="s"/>
-      <c r="M101" t="s"/>
-      <c r="N101" t="s"/>
-      <c r="O101" t="s"/>
-      <c r="P101" t="s"/>
-      <c r="Q101" t="s"/>
       <c r="R101" t="s">
         <v>449</v>
       </c>
-      <c r="S101" t="s"/>
-    </row>
-    <row r="102" spans="1:19">
-      <c r="A102" t="n">
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>67522.94981674524</v>
       </c>
       <c r="B102" t="s">
@@ -6510,11 +5682,9 @@
       <c r="E102" t="s">
         <v>23</v>
       </c>
-      <c r="F102" t="s"/>
       <c r="G102" t="s">
         <v>452</v>
       </c>
-      <c r="H102" t="s"/>
       <c r="I102" t="s">
         <v>148</v>
       </c>
@@ -6524,18 +5694,10 @@
       <c r="K102" t="s">
         <v>453</v>
       </c>
-      <c r="L102" t="s"/>
-      <c r="M102" t="s"/>
-      <c r="N102" t="s"/>
-      <c r="O102" t="s"/>
-      <c r="P102" t="s"/>
-      <c r="Q102" t="s"/>
-      <c r="R102" t="s"/>
-      <c r="S102" t="s"/>
-    </row>
-    <row r="103" spans="1:19">
-      <c r="A103" t="n">
-        <v>67491.26178216479</v>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>67491.261782164787</v>
       </c>
       <c r="B103" t="s">
         <v>454</v>
@@ -6564,25 +5726,19 @@
       <c r="J103" t="s">
         <v>27</v>
       </c>
-      <c r="K103" t="s"/>
       <c r="L103" t="s">
         <v>456</v>
       </c>
-      <c r="M103" t="s"/>
-      <c r="N103" t="s"/>
       <c r="O103" t="s">
         <v>325</v>
       </c>
-      <c r="P103" t="s"/>
-      <c r="Q103" t="s"/>
-      <c r="R103" t="s"/>
       <c r="S103" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
-      <c r="A104" t="n">
-        <v>67410.41698358403</v>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>67410.416983584029</v>
       </c>
       <c r="B104" t="s">
         <v>457</v>
@@ -6596,7 +5752,6 @@
       <c r="F104" t="s">
         <v>286</v>
       </c>
-      <c r="G104" t="s"/>
       <c r="H104" t="s">
         <v>34</v>
       </c>
@@ -6606,21 +5761,13 @@
       <c r="J104" t="s">
         <v>94</v>
       </c>
-      <c r="K104" t="s"/>
-      <c r="L104" t="s"/>
-      <c r="M104" t="s"/>
-      <c r="N104" t="s"/>
-      <c r="O104" t="s"/>
-      <c r="P104" t="s"/>
-      <c r="Q104" t="s"/>
       <c r="R104" t="s">
         <v>459</v>
       </c>
-      <c r="S104" t="s"/>
-    </row>
-    <row r="105" spans="1:19">
-      <c r="A105" t="n">
-        <v>66770.5820111045</v>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>66770.582011104503</v>
       </c>
       <c r="B105" t="s">
         <v>460</v>
@@ -6634,7 +5781,6 @@
       <c r="F105" t="s">
         <v>462</v>
       </c>
-      <c r="G105" t="s"/>
       <c r="H105" t="s">
         <v>34</v>
       </c>
@@ -6644,19 +5790,10 @@
       <c r="J105" t="s">
         <v>27</v>
       </c>
-      <c r="K105" t="s"/>
-      <c r="L105" t="s"/>
-      <c r="M105" t="s"/>
-      <c r="N105" t="s"/>
-      <c r="O105" t="s"/>
-      <c r="P105" t="s"/>
-      <c r="Q105" t="s"/>
-      <c r="R105" t="s"/>
-      <c r="S105" t="s"/>
-    </row>
-    <row r="106" spans="1:19">
-      <c r="A106" t="n">
-        <v>66288.76609694835</v>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>66288.766096948355</v>
       </c>
       <c r="B106" t="s">
         <v>463</v>
@@ -6667,7 +5804,6 @@
       <c r="E106" t="s">
         <v>23</v>
       </c>
-      <c r="F106" t="s"/>
       <c r="G106" t="s">
         <v>70</v>
       </c>
@@ -6677,14 +5813,6 @@
       <c r="I106" t="s">
         <v>148</v>
       </c>
-      <c r="J106" t="s"/>
-      <c r="K106" t="s"/>
-      <c r="L106" t="s"/>
-      <c r="M106" t="s"/>
-      <c r="N106" t="s"/>
-      <c r="O106" t="s"/>
-      <c r="P106" t="s"/>
-      <c r="Q106" t="s"/>
       <c r="R106" t="s">
         <v>465</v>
       </c>
@@ -6692,9 +5820,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
-      <c r="A107" t="n">
-        <v>66172.0833341586</v>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>66172.083334158597</v>
       </c>
       <c r="B107" t="s">
         <v>467</v>
@@ -6708,30 +5836,19 @@
       <c r="E107" t="s">
         <v>23</v>
       </c>
-      <c r="F107" t="s"/>
       <c r="G107" t="s">
         <v>469</v>
       </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s"/>
-      <c r="J107" t="s"/>
       <c r="K107" t="s">
         <v>470</v>
       </c>
-      <c r="L107" t="s"/>
-      <c r="M107" t="s"/>
-      <c r="N107" t="s"/>
-      <c r="O107" t="s"/>
-      <c r="P107" t="s"/>
-      <c r="Q107" t="s"/>
       <c r="R107" t="s">
         <v>471</v>
       </c>
-      <c r="S107" t="s"/>
-    </row>
-    <row r="108" spans="1:19">
-      <c r="A108" t="n">
-        <v>65728.90677035254</v>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>65728.906770352536</v>
       </c>
       <c r="B108" t="s">
         <v>472</v>
@@ -6745,29 +5862,19 @@
       <c r="F108" t="s">
         <v>316</v>
       </c>
-      <c r="G108" t="s"/>
       <c r="H108" t="s">
         <v>34</v>
       </c>
       <c r="I108" t="s">
         <v>148</v>
       </c>
-      <c r="J108" t="s"/>
-      <c r="K108" t="s"/>
-      <c r="L108" t="s"/>
-      <c r="M108" t="s"/>
-      <c r="N108" t="s"/>
-      <c r="O108" t="s"/>
-      <c r="P108" t="s"/>
-      <c r="Q108" t="s"/>
       <c r="R108" t="s">
         <v>474</v>
       </c>
-      <c r="S108" t="s"/>
-    </row>
-    <row r="109" spans="1:19">
-      <c r="A109" t="n">
-        <v>65461.36336309527</v>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>65461.363363095268</v>
       </c>
       <c r="B109" t="s">
         <v>475</v>
@@ -6802,19 +5909,13 @@
       <c r="L109" t="s">
         <v>477</v>
       </c>
-      <c r="M109" t="s"/>
-      <c r="N109" t="s"/>
-      <c r="O109" t="s"/>
-      <c r="P109" t="s"/>
-      <c r="Q109" t="s"/>
-      <c r="R109" t="s"/>
       <c r="S109" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
-      <c r="A110" t="n">
-        <v>65441.61412389808</v>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>65441.614123898078</v>
       </c>
       <c r="B110" t="s">
         <v>478</v>
@@ -6825,30 +5926,19 @@
       <c r="E110" t="s">
         <v>23</v>
       </c>
-      <c r="F110" t="s"/>
       <c r="G110" t="s">
         <v>480</v>
       </c>
-      <c r="H110" t="s"/>
       <c r="I110" t="s">
         <v>85</v>
       </c>
-      <c r="J110" t="s"/>
-      <c r="K110" t="s"/>
-      <c r="L110" t="s"/>
-      <c r="M110" t="s"/>
-      <c r="N110" t="s"/>
-      <c r="O110" t="s"/>
-      <c r="P110" t="s"/>
-      <c r="Q110" t="s"/>
       <c r="R110" t="s">
         <v>481</v>
       </c>
-      <c r="S110" t="s"/>
-    </row>
-    <row r="111" spans="1:19">
-      <c r="A111" t="n">
-        <v>64905.60978129563</v>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>64905.609781295629</v>
       </c>
       <c r="B111" t="s">
         <v>482</v>
@@ -6865,18 +5955,9 @@
       <c r="G111" t="s">
         <v>70</v>
       </c>
-      <c r="H111" t="s"/>
       <c r="I111" t="s">
         <v>85</v>
       </c>
-      <c r="J111" t="s"/>
-      <c r="K111" t="s"/>
-      <c r="L111" t="s"/>
-      <c r="M111" t="s"/>
-      <c r="N111" t="s"/>
-      <c r="O111" t="s"/>
-      <c r="P111" t="s"/>
-      <c r="Q111" t="s"/>
       <c r="R111" t="s">
         <v>485</v>
       </c>
@@ -6884,9 +5965,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
-      <c r="A112" t="n">
-        <v>64789.27639006123</v>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>64789.276390061234</v>
       </c>
       <c r="B112" t="s">
         <v>486</v>
@@ -6897,7 +5978,6 @@
       <c r="E112" t="s">
         <v>23</v>
       </c>
-      <c r="F112" t="s"/>
       <c r="G112" t="s">
         <v>70</v>
       </c>
@@ -6907,14 +5987,6 @@
       <c r="I112" t="s">
         <v>85</v>
       </c>
-      <c r="J112" t="s"/>
-      <c r="K112" t="s"/>
-      <c r="L112" t="s"/>
-      <c r="M112" t="s"/>
-      <c r="N112" t="s"/>
-      <c r="O112" t="s"/>
-      <c r="P112" t="s"/>
-      <c r="Q112" t="s"/>
       <c r="R112" t="s">
         <v>488</v>
       </c>
@@ -6922,9 +5994,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
-      <c r="A113" t="n">
-        <v>63787.80404538927</v>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>63787.804045389268</v>
       </c>
       <c r="B113" t="s">
         <v>489</v>
@@ -6935,7 +6007,6 @@
       <c r="E113" t="s">
         <v>23</v>
       </c>
-      <c r="F113" t="s"/>
       <c r="G113" t="s">
         <v>33</v>
       </c>
@@ -6951,20 +6022,13 @@
       <c r="K113" t="s">
         <v>136</v>
       </c>
-      <c r="L113" t="s"/>
-      <c r="M113" t="s"/>
-      <c r="N113" t="s"/>
-      <c r="O113" t="s"/>
-      <c r="P113" t="s"/>
-      <c r="Q113" t="s"/>
-      <c r="R113" t="s"/>
       <c r="S113" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
-      <c r="A114" t="n">
-        <v>61678.85300521232</v>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>61678.853005212317</v>
       </c>
       <c r="B114" t="s">
         <v>492</v>
@@ -6981,18 +6045,9 @@
       <c r="G114" t="s">
         <v>70</v>
       </c>
-      <c r="H114" t="s"/>
       <c r="I114" t="s">
         <v>85</v>
       </c>
-      <c r="J114" t="s"/>
-      <c r="K114" t="s"/>
-      <c r="L114" t="s"/>
-      <c r="M114" t="s"/>
-      <c r="N114" t="s"/>
-      <c r="O114" t="s"/>
-      <c r="P114" t="s"/>
-      <c r="Q114" t="s"/>
       <c r="R114" t="s">
         <v>485</v>
       </c>
@@ -7000,9 +6055,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
-      <c r="A115" t="n">
-        <v>61662.26104069378</v>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>61662.261040693782</v>
       </c>
       <c r="B115" t="s">
         <v>495</v>
@@ -7028,19 +6083,10 @@
       <c r="J115" t="s">
         <v>27</v>
       </c>
-      <c r="K115" t="s"/>
-      <c r="L115" t="s"/>
-      <c r="M115" t="s"/>
-      <c r="N115" t="s"/>
-      <c r="O115" t="s"/>
-      <c r="P115" t="s"/>
-      <c r="Q115" t="s"/>
-      <c r="R115" t="s"/>
-      <c r="S115" t="s"/>
-    </row>
-    <row r="116" spans="1:19">
-      <c r="A116" t="n">
-        <v>61562.51961397793</v>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>61562.519613977929</v>
       </c>
       <c r="B116" t="s">
         <v>497</v>
@@ -7051,7 +6097,6 @@
       <c r="E116" t="s">
         <v>23</v>
       </c>
-      <c r="F116" t="s"/>
       <c r="G116" t="s">
         <v>70</v>
       </c>
@@ -7061,14 +6106,6 @@
       <c r="I116" t="s">
         <v>85</v>
       </c>
-      <c r="J116" t="s"/>
-      <c r="K116" t="s"/>
-      <c r="L116" t="s"/>
-      <c r="M116" t="s"/>
-      <c r="N116" t="s"/>
-      <c r="O116" t="s"/>
-      <c r="P116" t="s"/>
-      <c r="Q116" t="s"/>
       <c r="R116" t="s">
         <v>499</v>
       </c>
@@ -7076,9 +6113,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
-      <c r="A117" t="n">
-        <v>60572.56933210144</v>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>60572.569332101441</v>
       </c>
       <c r="B117" t="s">
         <v>500</v>
@@ -7089,22 +6126,12 @@
       <c r="E117" t="s">
         <v>23</v>
       </c>
-      <c r="F117" t="s"/>
       <c r="G117" t="s">
         <v>70</v>
       </c>
-      <c r="H117" t="s"/>
       <c r="I117" t="s">
         <v>85</v>
       </c>
-      <c r="J117" t="s"/>
-      <c r="K117" t="s"/>
-      <c r="L117" t="s"/>
-      <c r="M117" t="s"/>
-      <c r="N117" t="s"/>
-      <c r="O117" t="s"/>
-      <c r="P117" t="s"/>
-      <c r="Q117" t="s"/>
       <c r="R117" t="s">
         <v>502</v>
       </c>
@@ -7112,9 +6139,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
-      <c r="A118" t="n">
-        <v>59914.98990248368</v>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>59914.989902483678</v>
       </c>
       <c r="B118" t="s">
         <v>503</v>
@@ -7125,11 +6152,9 @@
       <c r="E118" t="s">
         <v>23</v>
       </c>
-      <c r="F118" t="s"/>
       <c r="G118" t="s">
         <v>480</v>
       </c>
-      <c r="H118" t="s"/>
       <c r="I118" t="s">
         <v>148</v>
       </c>
@@ -7139,18 +6164,10 @@
       <c r="K118" t="s">
         <v>505</v>
       </c>
-      <c r="L118" t="s"/>
-      <c r="M118" t="s"/>
-      <c r="N118" t="s"/>
-      <c r="O118" t="s"/>
-      <c r="P118" t="s"/>
-      <c r="Q118" t="s"/>
-      <c r="R118" t="s"/>
-      <c r="S118" t="s"/>
-    </row>
-    <row r="119" spans="1:19">
-      <c r="A119" t="n">
-        <v>57379.00326439649</v>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>57379.003264396488</v>
       </c>
       <c r="B119" t="s">
         <v>506</v>
@@ -7161,11 +6178,9 @@
       <c r="E119" t="s">
         <v>23</v>
       </c>
-      <c r="F119" t="s"/>
       <c r="G119" t="s">
         <v>469</v>
       </c>
-      <c r="H119" t="s"/>
       <c r="I119" t="s">
         <v>148</v>
       </c>
@@ -7175,17 +6190,9 @@
       <c r="K119" t="s">
         <v>508</v>
       </c>
-      <c r="L119" t="s"/>
-      <c r="M119" t="s"/>
-      <c r="N119" t="s"/>
-      <c r="O119" t="s"/>
-      <c r="P119" t="s"/>
-      <c r="Q119" t="s"/>
-      <c r="R119" t="s"/>
-      <c r="S119" t="s"/>
-    </row>
-    <row r="120" spans="1:19">
-      <c r="A120" t="n">
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>57155.69946687598</v>
       </c>
       <c r="B120" t="s">
@@ -7197,32 +6204,22 @@
       <c r="E120" t="s">
         <v>23</v>
       </c>
-      <c r="F120" t="s"/>
       <c r="G120" t="s">
         <v>416</v>
       </c>
-      <c r="H120" t="s"/>
       <c r="I120" t="s">
         <v>148</v>
       </c>
-      <c r="J120" t="s"/>
       <c r="K120" t="s">
         <v>511</v>
       </c>
-      <c r="L120" t="s"/>
-      <c r="M120" t="s"/>
-      <c r="N120" t="s"/>
-      <c r="O120" t="s"/>
-      <c r="P120" t="s"/>
-      <c r="Q120" t="s"/>
       <c r="R120" t="s">
         <v>512</v>
       </c>
-      <c r="S120" t="s"/>
-    </row>
-    <row r="121" spans="1:19">
-      <c r="A121" t="n">
-        <v>56970.26750563464</v>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>56970.267505634642</v>
       </c>
       <c r="B121" t="s">
         <v>513</v>
@@ -7233,32 +6230,22 @@
       <c r="E121" t="s">
         <v>23</v>
       </c>
-      <c r="F121" t="s"/>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s"/>
       <c r="I121" t="s">
         <v>148</v>
       </c>
       <c r="J121" t="s">
         <v>36</v>
       </c>
-      <c r="K121" t="s"/>
-      <c r="L121" t="s"/>
-      <c r="M121" t="s"/>
       <c r="N121" t="s">
         <v>515</v>
       </c>
-      <c r="O121" t="s"/>
-      <c r="P121" t="s"/>
-      <c r="Q121" t="s"/>
       <c r="R121" t="s">
         <v>512</v>
       </c>
-      <c r="S121" t="s"/>
-    </row>
-    <row r="122" spans="1:19">
-      <c r="A122" t="n">
-        <v>56293.50335643181</v>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>56293.503356431807</v>
       </c>
       <c r="B122" t="s">
         <v>516</v>
@@ -7269,32 +6256,22 @@
       <c r="E122" t="s">
         <v>23</v>
       </c>
-      <c r="F122" t="s"/>
       <c r="G122" t="s">
         <v>469</v>
       </c>
-      <c r="H122" t="s"/>
       <c r="I122" t="s">
         <v>85</v>
       </c>
-      <c r="J122" t="s"/>
       <c r="K122" t="s">
         <v>518</v>
       </c>
-      <c r="L122" t="s"/>
-      <c r="M122" t="s"/>
-      <c r="N122" t="s"/>
-      <c r="O122" t="s"/>
-      <c r="P122" t="s"/>
-      <c r="Q122" t="s"/>
       <c r="R122" t="s">
         <v>512</v>
       </c>
-      <c r="S122" t="s"/>
-    </row>
-    <row r="123" spans="1:19">
-      <c r="A123" t="n">
-        <v>56181.13168129871</v>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>56181.131681298713</v>
       </c>
       <c r="B123" t="s">
         <v>519</v>
@@ -7311,7 +6288,6 @@
       <c r="F123" t="s">
         <v>521</v>
       </c>
-      <c r="G123" t="s"/>
       <c r="H123" t="s">
         <v>34</v>
       </c>
@@ -7321,19 +6297,10 @@
       <c r="J123" t="s">
         <v>94</v>
       </c>
-      <c r="K123" t="s"/>
-      <c r="L123" t="s"/>
-      <c r="M123" t="s"/>
-      <c r="N123" t="s"/>
-      <c r="O123" t="s"/>
-      <c r="P123" t="s"/>
-      <c r="Q123" t="s"/>
-      <c r="R123" t="s"/>
-      <c r="S123" t="s"/>
-    </row>
-    <row r="124" spans="1:19">
-      <c r="A124" t="n">
-        <v>56181.13168129871</v>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>56181.131681298713</v>
       </c>
       <c r="B124" t="s">
         <v>522</v>
@@ -7350,7 +6317,6 @@
       <c r="F124" t="s">
         <v>521</v>
       </c>
-      <c r="G124" t="s"/>
       <c r="H124" t="s">
         <v>34</v>
       </c>
@@ -7360,19 +6326,10 @@
       <c r="J124" t="s">
         <v>94</v>
       </c>
-      <c r="K124" t="s"/>
-      <c r="L124" t="s"/>
-      <c r="M124" t="s"/>
-      <c r="N124" t="s"/>
-      <c r="O124" t="s"/>
-      <c r="P124" t="s"/>
-      <c r="Q124" t="s"/>
-      <c r="R124" t="s"/>
-      <c r="S124" t="s"/>
-    </row>
-    <row r="125" spans="1:19">
-      <c r="A125" t="n">
-        <v>53518.14931238834</v>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>53518.149312388341</v>
       </c>
       <c r="B125" t="s">
         <v>523</v>
@@ -7389,7 +6346,6 @@
       <c r="F125" t="s">
         <v>525</v>
       </c>
-      <c r="G125" t="s"/>
       <c r="H125" t="s">
         <v>56</v>
       </c>
@@ -7399,21 +6355,13 @@
       <c r="J125" t="s">
         <v>27</v>
       </c>
-      <c r="K125" t="s"/>
-      <c r="L125" t="s"/>
-      <c r="M125" t="s"/>
-      <c r="N125" t="s"/>
-      <c r="O125" t="s"/>
-      <c r="P125" t="s"/>
-      <c r="Q125" t="s"/>
-      <c r="R125" t="s"/>
       <c r="S125" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
-      <c r="A126" t="n">
-        <v>53393.88140454519</v>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>53393.881404545187</v>
       </c>
       <c r="B126" t="s">
         <v>526</v>
@@ -7424,11 +6372,9 @@
       <c r="E126" t="s">
         <v>23</v>
       </c>
-      <c r="F126" t="s"/>
       <c r="G126" t="s">
         <v>63</v>
       </c>
-      <c r="H126" t="s"/>
       <c r="I126" t="s">
         <v>148</v>
       </c>
@@ -7438,18 +6384,10 @@
       <c r="K126" t="s">
         <v>528</v>
       </c>
-      <c r="L126" t="s"/>
-      <c r="M126" t="s"/>
-      <c r="N126" t="s"/>
-      <c r="O126" t="s"/>
-      <c r="P126" t="s"/>
-      <c r="Q126" t="s"/>
-      <c r="R126" t="s"/>
-      <c r="S126" t="s"/>
-    </row>
-    <row r="127" spans="1:19">
-      <c r="A127" t="n">
-        <v>53170.57760702469</v>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>53170.577607024687</v>
       </c>
       <c r="B127" t="s">
         <v>529</v>
@@ -7460,32 +6398,22 @@
       <c r="E127" t="s">
         <v>23</v>
       </c>
-      <c r="F127" t="s"/>
       <c r="G127" t="s">
         <v>63</v>
       </c>
-      <c r="H127" t="s"/>
       <c r="I127" t="s">
         <v>148</v>
       </c>
-      <c r="J127" t="s"/>
       <c r="K127" t="s">
         <v>531</v>
       </c>
-      <c r="L127" t="s"/>
-      <c r="M127" t="s"/>
-      <c r="N127" t="s"/>
-      <c r="O127" t="s"/>
-      <c r="P127" t="s"/>
-      <c r="Q127" t="s"/>
       <c r="R127" t="s">
         <v>512</v>
       </c>
-      <c r="S127" t="s"/>
-    </row>
-    <row r="128" spans="1:19">
-      <c r="A128" t="n">
-        <v>53021.14529615306</v>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>53021.145296153059</v>
       </c>
       <c r="B128" t="s">
         <v>532</v>
@@ -7499,7 +6427,6 @@
       <c r="F128" t="s">
         <v>74</v>
       </c>
-      <c r="G128" t="s"/>
       <c r="H128" t="s">
         <v>64</v>
       </c>
@@ -7509,19 +6436,10 @@
       <c r="J128" t="s">
         <v>43</v>
       </c>
-      <c r="K128" t="s"/>
-      <c r="L128" t="s"/>
-      <c r="M128" t="s"/>
-      <c r="N128" t="s"/>
-      <c r="O128" t="s"/>
-      <c r="P128" t="s"/>
-      <c r="Q128" t="s"/>
-      <c r="R128" t="s"/>
-      <c r="S128" t="s"/>
-    </row>
-    <row r="129" spans="1:19">
-      <c r="A129" t="n">
-        <v>52968.59171989703</v>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>52968.591719897027</v>
       </c>
       <c r="B129" t="s">
         <v>534</v>
@@ -7532,11 +6450,9 @@
       <c r="E129" t="s">
         <v>23</v>
       </c>
-      <c r="F129" t="s"/>
       <c r="G129" t="s">
         <v>33</v>
       </c>
-      <c r="H129" t="s"/>
       <c r="I129" t="s">
         <v>148</v>
       </c>
@@ -7546,18 +6462,10 @@
       <c r="K129" t="s">
         <v>536</v>
       </c>
-      <c r="L129" t="s"/>
-      <c r="M129" t="s"/>
-      <c r="N129" t="s"/>
-      <c r="O129" t="s"/>
-      <c r="P129" t="s"/>
-      <c r="Q129" t="s"/>
-      <c r="R129" t="s"/>
-      <c r="S129" t="s"/>
-    </row>
-    <row r="130" spans="1:19">
-      <c r="A130" t="n">
-        <v>52308.38149658051</v>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>52308.381496580507</v>
       </c>
       <c r="B130" t="s">
         <v>537</v>
@@ -7568,32 +6476,22 @@
       <c r="E130" t="s">
         <v>23</v>
       </c>
-      <c r="F130" t="s"/>
       <c r="G130" t="s">
         <v>63</v>
       </c>
-      <c r="H130" t="s"/>
       <c r="I130" t="s">
         <v>85</v>
       </c>
-      <c r="J130" t="s"/>
       <c r="K130" t="s">
         <v>539</v>
       </c>
-      <c r="L130" t="s"/>
-      <c r="M130" t="s"/>
-      <c r="N130" t="s"/>
-      <c r="O130" t="s"/>
-      <c r="P130" t="s"/>
-      <c r="Q130" t="s"/>
       <c r="R130" t="s">
         <v>512</v>
       </c>
-      <c r="S130" t="s"/>
-    </row>
-    <row r="131" spans="1:19">
-      <c r="A131" t="n">
-        <v>51985.50372928548</v>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>51985.503729285483</v>
       </c>
       <c r="B131" t="s">
         <v>540</v>
@@ -7607,20 +6505,9 @@
       <c r="E131" t="s">
         <v>23</v>
       </c>
-      <c r="F131" t="s"/>
       <c r="G131" t="s">
         <v>542</v>
       </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s"/>
-      <c r="J131" t="s"/>
-      <c r="K131" t="s"/>
-      <c r="L131" t="s"/>
-      <c r="M131" t="s"/>
-      <c r="N131" t="s"/>
-      <c r="O131" t="s"/>
-      <c r="P131" t="s"/>
-      <c r="Q131" t="s"/>
       <c r="R131" t="s">
         <v>543</v>
       </c>
@@ -7628,9 +6515,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
-      <c r="A132" t="n">
-        <v>51930.81469125984</v>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>51930.814691259839</v>
       </c>
       <c r="B132" t="s">
         <v>544</v>
@@ -7647,7 +6534,6 @@
       <c r="F132" t="s">
         <v>226</v>
       </c>
-      <c r="G132" t="s"/>
       <c r="H132" t="s">
         <v>34</v>
       </c>
@@ -7657,15 +6543,9 @@
       <c r="J132" t="s">
         <v>94</v>
       </c>
-      <c r="K132" t="s"/>
       <c r="L132" t="s">
         <v>547</v>
       </c>
-      <c r="M132" t="s"/>
-      <c r="N132" t="s"/>
-      <c r="O132" t="s"/>
-      <c r="P132" t="s"/>
-      <c r="Q132" t="s"/>
       <c r="R132" t="s">
         <v>228</v>
       </c>
@@ -7673,9 +6553,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
-      <c r="A133" t="n">
-        <v>51827.05179434147</v>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>51827.051794341467</v>
       </c>
       <c r="B133" t="s">
         <v>548</v>
@@ -7692,18 +6572,9 @@
       <c r="G133" t="s">
         <v>70</v>
       </c>
-      <c r="H133" t="s"/>
       <c r="I133" t="s">
         <v>148</v>
       </c>
-      <c r="J133" t="s"/>
-      <c r="K133" t="s"/>
-      <c r="L133" t="s"/>
-      <c r="M133" t="s"/>
-      <c r="N133" t="s"/>
-      <c r="O133" t="s"/>
-      <c r="P133" t="s"/>
-      <c r="Q133" t="s"/>
       <c r="R133" t="s">
         <v>512</v>
       </c>
@@ -7711,9 +6582,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
-      <c r="A134" t="n">
-        <v>51384.14171143553</v>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>51384.141711435528</v>
       </c>
       <c r="B134" t="s">
         <v>551</v>
@@ -7730,7 +6601,6 @@
       <c r="F134" t="s">
         <v>196</v>
       </c>
-      <c r="G134" t="s"/>
       <c r="H134" t="s">
         <v>34</v>
       </c>
@@ -7740,21 +6610,13 @@
       <c r="J134" t="s">
         <v>94</v>
       </c>
-      <c r="K134" t="s"/>
       <c r="L134" t="s">
         <v>371</v>
       </c>
-      <c r="M134" t="s"/>
-      <c r="N134" t="s"/>
-      <c r="O134" t="s"/>
-      <c r="P134" t="s"/>
-      <c r="Q134" t="s"/>
-      <c r="R134" t="s"/>
-      <c r="S134" t="s"/>
-    </row>
-    <row r="135" spans="1:19">
-      <c r="A135" t="n">
-        <v>50471.05085486277</v>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>50471.050854862769</v>
       </c>
       <c r="B135" t="s">
         <v>553</v>
@@ -7768,7 +6630,6 @@
       <c r="F135" t="s">
         <v>555</v>
       </c>
-      <c r="G135" t="s"/>
       <c r="H135" t="s">
         <v>56</v>
       </c>
@@ -7778,21 +6639,13 @@
       <c r="J135" t="s">
         <v>94</v>
       </c>
-      <c r="K135" t="s"/>
-      <c r="L135" t="s"/>
-      <c r="M135" t="s"/>
-      <c r="N135" t="s"/>
-      <c r="O135" t="s"/>
-      <c r="P135" t="s"/>
-      <c r="Q135" t="s"/>
-      <c r="R135" t="s"/>
       <c r="S135" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
-      <c r="A136" t="n">
-        <v>49695.80514995003</v>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>49695.805149950029</v>
       </c>
       <c r="B136" t="s">
         <v>556</v>
@@ -7809,7 +6662,6 @@
       <c r="F136" t="s">
         <v>343</v>
       </c>
-      <c r="G136" t="s"/>
       <c r="H136" t="s">
         <v>64</v>
       </c>
@@ -7819,19 +6671,10 @@
       <c r="J136" t="s">
         <v>43</v>
       </c>
-      <c r="K136" t="s"/>
-      <c r="L136" t="s"/>
-      <c r="M136" t="s"/>
-      <c r="N136" t="s"/>
-      <c r="O136" t="s"/>
-      <c r="P136" t="s"/>
-      <c r="Q136" t="s"/>
-      <c r="R136" t="s"/>
-      <c r="S136" t="s"/>
-    </row>
-    <row r="137" spans="1:19">
-      <c r="A137" t="n">
-        <v>48833.60903950586</v>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>48833.609039505864</v>
       </c>
       <c r="B137" t="s">
         <v>558</v>
@@ -7848,7 +6691,6 @@
       <c r="F137" t="s">
         <v>343</v>
       </c>
-      <c r="G137" t="s"/>
       <c r="H137" t="s">
         <v>64</v>
       </c>
@@ -7858,19 +6700,10 @@
       <c r="J137" t="s">
         <v>43</v>
       </c>
-      <c r="K137" t="s"/>
-      <c r="L137" t="s"/>
-      <c r="M137" t="s"/>
-      <c r="N137" t="s"/>
-      <c r="O137" t="s"/>
-      <c r="P137" t="s"/>
-      <c r="Q137" t="s"/>
-      <c r="R137" t="s"/>
-      <c r="S137" t="s"/>
-    </row>
-    <row r="138" spans="1:19">
-      <c r="A138" t="n">
-        <v>48173.99430088568</v>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>48173.994300885679</v>
       </c>
       <c r="B138" t="s">
         <v>560</v>
@@ -7899,22 +6732,15 @@
       <c r="J138" t="s">
         <v>27</v>
       </c>
-      <c r="K138" t="s"/>
       <c r="L138" t="s">
         <v>563</v>
       </c>
-      <c r="M138" t="s"/>
-      <c r="N138" t="s"/>
-      <c r="O138" t="s"/>
-      <c r="P138" t="s"/>
-      <c r="Q138" t="s"/>
-      <c r="R138" t="s"/>
       <c r="S138" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
-      <c r="A139" t="n">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>48058.80156523249</v>
       </c>
       <c r="B139" t="s">
@@ -7932,7 +6758,6 @@
       <c r="F139" t="s">
         <v>275</v>
       </c>
-      <c r="G139" t="s"/>
       <c r="H139" t="s">
         <v>34</v>
       </c>
@@ -7942,20 +6767,12 @@
       <c r="J139" t="s">
         <v>94</v>
       </c>
-      <c r="K139" t="s"/>
       <c r="L139" t="s">
         <v>566</v>
       </c>
-      <c r="M139" t="s"/>
-      <c r="N139" t="s"/>
-      <c r="O139" t="s"/>
-      <c r="P139" t="s"/>
-      <c r="Q139" t="s"/>
-      <c r="R139" t="s"/>
-      <c r="S139" t="s"/>
-    </row>
-    <row r="140" spans="1:19">
-      <c r="A140" t="n">
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>48058.80156523249</v>
       </c>
       <c r="B140" t="s">
@@ -7973,7 +6790,6 @@
       <c r="F140" t="s">
         <v>569</v>
       </c>
-      <c r="G140" t="s"/>
       <c r="H140" t="s">
         <v>34</v>
       </c>
@@ -7983,21 +6799,13 @@
       <c r="J140" t="s">
         <v>94</v>
       </c>
-      <c r="K140" t="s"/>
       <c r="L140" t="s">
         <v>570</v>
       </c>
-      <c r="M140" t="s"/>
-      <c r="N140" t="s"/>
-      <c r="O140" t="s"/>
-      <c r="P140" t="s"/>
-      <c r="Q140" t="s"/>
-      <c r="R140" t="s"/>
-      <c r="S140" t="s"/>
-    </row>
-    <row r="141" spans="1:19">
-      <c r="A141" t="n">
-        <v>47728.36600660731</v>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>47728.366006607313</v>
       </c>
       <c r="B141" t="s">
         <v>571</v>
@@ -8008,7 +6816,6 @@
       <c r="E141" t="s">
         <v>23</v>
       </c>
-      <c r="F141" t="s"/>
       <c r="G141" t="s">
         <v>63</v>
       </c>
@@ -8021,21 +6828,13 @@
       <c r="J141" t="s">
         <v>27</v>
       </c>
-      <c r="K141" t="s"/>
-      <c r="L141" t="s"/>
-      <c r="M141" t="s"/>
-      <c r="N141" t="s"/>
-      <c r="O141" t="s"/>
-      <c r="P141" t="s"/>
-      <c r="Q141" t="s"/>
       <c r="R141" t="s">
         <v>106</v>
       </c>
-      <c r="S141" t="s"/>
-    </row>
-    <row r="142" spans="1:19">
-      <c r="A142" t="n">
-        <v>47675.55076039647</v>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>47675.550760396472</v>
       </c>
       <c r="B142" t="s">
         <v>573</v>
@@ -8049,7 +6848,6 @@
       <c r="F142" t="s">
         <v>575</v>
       </c>
-      <c r="G142" t="s"/>
       <c r="H142" t="s">
         <v>64</v>
       </c>
@@ -8059,19 +6857,10 @@
       <c r="J142" t="s">
         <v>27</v>
       </c>
-      <c r="K142" t="s"/>
-      <c r="L142" t="s"/>
-      <c r="M142" t="s"/>
-      <c r="N142" t="s"/>
-      <c r="O142" t="s"/>
-      <c r="P142" t="s"/>
-      <c r="Q142" t="s"/>
-      <c r="R142" t="s"/>
-      <c r="S142" t="s"/>
-    </row>
-    <row r="143" spans="1:19">
-      <c r="A143" t="n">
-        <v>47675.55076039647</v>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>47675.550760396472</v>
       </c>
       <c r="B143" t="s">
         <v>576</v>
@@ -8085,7 +6874,6 @@
       <c r="F143" t="s">
         <v>578</v>
       </c>
-      <c r="G143" t="s"/>
       <c r="H143" t="s">
         <v>64</v>
       </c>
@@ -8095,19 +6883,10 @@
       <c r="J143" t="s">
         <v>27</v>
       </c>
-      <c r="K143" t="s"/>
-      <c r="L143" t="s"/>
-      <c r="M143" t="s"/>
-      <c r="N143" t="s"/>
-      <c r="O143" t="s"/>
-      <c r="P143" t="s"/>
-      <c r="Q143" t="s"/>
-      <c r="R143" t="s"/>
-      <c r="S143" t="s"/>
-    </row>
-    <row r="144" spans="1:19">
-      <c r="A144" t="n">
-        <v>47675.55076039647</v>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>47675.550760396472</v>
       </c>
       <c r="B144" t="s">
         <v>579</v>
@@ -8121,7 +6900,6 @@
       <c r="F144" t="s">
         <v>581</v>
       </c>
-      <c r="G144" t="s"/>
       <c r="H144" t="s">
         <v>64</v>
       </c>
@@ -8131,19 +6909,10 @@
       <c r="J144" t="s">
         <v>27</v>
       </c>
-      <c r="K144" t="s"/>
-      <c r="L144" t="s"/>
-      <c r="M144" t="s"/>
-      <c r="N144" t="s"/>
-      <c r="O144" t="s"/>
-      <c r="P144" t="s"/>
-      <c r="Q144" t="s"/>
-      <c r="R144" t="s"/>
-      <c r="S144" t="s"/>
-    </row>
-    <row r="145" spans="1:19">
-      <c r="A145" t="n">
-        <v>47388.99035863189</v>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>47388.990358631891</v>
       </c>
       <c r="B145" t="s">
         <v>582</v>
@@ -8157,7 +6926,6 @@
       <c r="F145" t="s">
         <v>584</v>
       </c>
-      <c r="G145" t="s"/>
       <c r="H145" t="s">
         <v>34</v>
       </c>
@@ -8167,19 +6935,10 @@
       <c r="J145" t="s">
         <v>94</v>
       </c>
-      <c r="K145" t="s"/>
-      <c r="L145" t="s"/>
-      <c r="M145" t="s"/>
-      <c r="N145" t="s"/>
-      <c r="O145" t="s"/>
-      <c r="P145" t="s"/>
-      <c r="Q145" t="s"/>
-      <c r="R145" t="s"/>
-      <c r="S145" t="s"/>
-    </row>
-    <row r="146" spans="1:19">
-      <c r="A146" t="n">
-        <v>46818.54113388627</v>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>46818.541133886269</v>
       </c>
       <c r="B146" t="s">
         <v>585</v>
@@ -8190,8 +6949,6 @@
       <c r="E146" t="s">
         <v>23</v>
       </c>
-      <c r="F146" t="s"/>
-      <c r="G146" t="s"/>
       <c r="H146" t="s">
         <v>34</v>
       </c>
@@ -8201,19 +6958,10 @@
       <c r="J146" t="s">
         <v>27</v>
       </c>
-      <c r="K146" t="s"/>
-      <c r="L146" t="s"/>
-      <c r="M146" t="s"/>
-      <c r="N146" t="s"/>
-      <c r="O146" t="s"/>
-      <c r="P146" t="s"/>
-      <c r="Q146" t="s"/>
-      <c r="R146" t="s"/>
-      <c r="S146" t="s"/>
-    </row>
-    <row r="147" spans="1:19">
-      <c r="A147" t="n">
-        <v>46293.63758460007</v>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>46293.637584600066</v>
       </c>
       <c r="B147" t="s">
         <v>587</v>
@@ -8224,30 +6972,19 @@
       <c r="E147" t="s">
         <v>23</v>
       </c>
-      <c r="F147" t="s"/>
-      <c r="G147" t="s"/>
       <c r="H147" t="s">
         <v>589</v>
       </c>
       <c r="I147" t="s">
         <v>148</v>
       </c>
-      <c r="J147" t="s"/>
-      <c r="K147" t="s"/>
-      <c r="L147" t="s"/>
-      <c r="M147" t="s"/>
-      <c r="N147" t="s"/>
-      <c r="O147" t="s"/>
-      <c r="P147" t="s"/>
-      <c r="Q147" t="s"/>
-      <c r="R147" t="s"/>
       <c r="S147" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
-      <c r="A148" t="n">
-        <v>44928.57028827278</v>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>44928.570288272778</v>
       </c>
       <c r="B148" t="s">
         <v>590</v>
@@ -8258,28 +6995,16 @@
       <c r="E148" t="s">
         <v>23</v>
       </c>
-      <c r="F148" t="s"/>
-      <c r="G148" t="s"/>
       <c r="H148" t="s">
         <v>592</v>
       </c>
       <c r="I148" t="s">
         <v>85</v>
       </c>
-      <c r="J148" t="s"/>
-      <c r="K148" t="s"/>
-      <c r="L148" t="s"/>
-      <c r="M148" t="s"/>
-      <c r="N148" t="s"/>
-      <c r="O148" t="s"/>
-      <c r="P148" t="s"/>
-      <c r="Q148" t="s"/>
-      <c r="R148" t="s"/>
-      <c r="S148" t="s"/>
-    </row>
-    <row r="149" spans="1:19">
-      <c r="A149" t="n">
-        <v>44083.03268510928</v>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>44083.032685109283</v>
       </c>
       <c r="B149" t="s">
         <v>593</v>
@@ -8296,7 +7021,6 @@
       <c r="F149" t="s">
         <v>226</v>
       </c>
-      <c r="G149" t="s"/>
       <c r="H149" t="s">
         <v>34</v>
       </c>
@@ -8306,15 +7030,9 @@
       <c r="J149" t="s">
         <v>94</v>
       </c>
-      <c r="K149" t="s"/>
       <c r="L149" t="s">
         <v>227</v>
       </c>
-      <c r="M149" t="s"/>
-      <c r="N149" t="s"/>
-      <c r="O149" t="s"/>
-      <c r="P149" t="s"/>
-      <c r="Q149" t="s"/>
       <c r="R149" t="s">
         <v>228</v>
       </c>
@@ -8322,9 +7040,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
-      <c r="A150" t="n">
-        <v>43182.61396185472</v>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>43182.613961854717</v>
       </c>
       <c r="B150" t="s">
         <v>596</v>
@@ -8338,27 +7056,16 @@
       <c r="F150" t="s">
         <v>598</v>
       </c>
-      <c r="G150" t="s"/>
       <c r="H150" t="s">
         <v>34</v>
       </c>
       <c r="I150" t="s">
         <v>148</v>
       </c>
-      <c r="J150" t="s"/>
-      <c r="K150" t="s"/>
-      <c r="L150" t="s"/>
-      <c r="M150" t="s"/>
-      <c r="N150" t="s"/>
-      <c r="O150" t="s"/>
-      <c r="P150" t="s"/>
-      <c r="Q150" t="s"/>
-      <c r="R150" t="s"/>
-      <c r="S150" t="s"/>
-    </row>
-    <row r="151" spans="1:19">
-      <c r="A151" t="n">
-        <v>42320.41785141054</v>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>42320.417851410537</v>
       </c>
       <c r="B151" t="s">
         <v>599</v>
@@ -8372,27 +7079,16 @@
       <c r="F151" t="s">
         <v>601</v>
       </c>
-      <c r="G151" t="s"/>
       <c r="H151" t="s">
         <v>34</v>
       </c>
       <c r="I151" t="s">
         <v>85</v>
       </c>
-      <c r="J151" t="s"/>
-      <c r="K151" t="s"/>
-      <c r="L151" t="s"/>
-      <c r="M151" t="s"/>
-      <c r="N151" t="s"/>
-      <c r="O151" t="s"/>
-      <c r="P151" t="s"/>
-      <c r="Q151" t="s"/>
-      <c r="R151" t="s"/>
-      <c r="S151" t="s"/>
-    </row>
-    <row r="152" spans="1:19">
-      <c r="A152" t="n">
-        <v>41617.62422613357</v>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>41617.624226133572</v>
       </c>
       <c r="B152" t="s">
         <v>602</v>
@@ -8406,32 +7102,22 @@
       <c r="E152" t="s">
         <v>23</v>
       </c>
-      <c r="F152" t="s"/>
       <c r="G152" t="s">
         <v>70</v>
       </c>
-      <c r="H152" t="s"/>
       <c r="I152" t="s">
         <v>148</v>
       </c>
-      <c r="J152" t="s"/>
-      <c r="K152" t="s"/>
-      <c r="L152" t="s"/>
-      <c r="M152" t="s"/>
       <c r="N152" t="s">
         <v>605</v>
       </c>
-      <c r="O152" t="s"/>
-      <c r="P152" t="s"/>
-      <c r="Q152" t="s"/>
-      <c r="R152" t="s"/>
       <c r="S152" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
-      <c r="A153" t="n">
-        <v>40772.0236234257</v>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>40772.023623425703</v>
       </c>
       <c r="B153" t="s">
         <v>606</v>
@@ -8442,28 +7128,16 @@
       <c r="E153" t="s">
         <v>23</v>
       </c>
-      <c r="F153" t="s"/>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s"/>
       <c r="I153" t="s">
         <v>148</v>
       </c>
-      <c r="J153" t="s"/>
-      <c r="K153" t="s"/>
-      <c r="L153" t="s"/>
-      <c r="M153" t="s"/>
-      <c r="N153" t="s"/>
-      <c r="O153" t="s"/>
-      <c r="P153" t="s"/>
-      <c r="Q153" t="s"/>
       <c r="R153" t="s">
         <v>608</v>
       </c>
-      <c r="S153" t="s"/>
-    </row>
-    <row r="154" spans="1:19">
-      <c r="A154" t="n">
-        <v>40644.40475928952</v>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>40644.404759289522</v>
       </c>
       <c r="B154" t="s">
         <v>609</v>
@@ -8474,28 +7148,16 @@
       <c r="E154" t="s">
         <v>23</v>
       </c>
-      <c r="F154" t="s"/>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s"/>
       <c r="I154" t="s">
         <v>148</v>
       </c>
       <c r="J154" t="s">
         <v>36</v>
       </c>
-      <c r="K154" t="s"/>
-      <c r="L154" t="s"/>
-      <c r="M154" t="s"/>
-      <c r="N154" t="s"/>
-      <c r="O154" t="s"/>
-      <c r="P154" t="s"/>
-      <c r="Q154" t="s"/>
-      <c r="R154" t="s"/>
-      <c r="S154" t="s"/>
-    </row>
-    <row r="155" spans="1:19">
-      <c r="A155" t="n">
-        <v>39909.82751298152</v>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>39909.827512981523</v>
       </c>
       <c r="B155" t="s">
         <v>611</v>
@@ -8506,27 +7168,15 @@
       <c r="E155" t="s">
         <v>23</v>
       </c>
-      <c r="F155" t="s"/>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s"/>
       <c r="I155" t="s">
         <v>85</v>
       </c>
-      <c r="J155" t="s"/>
-      <c r="K155" t="s"/>
-      <c r="L155" t="s"/>
-      <c r="M155" t="s"/>
-      <c r="N155" t="s"/>
-      <c r="O155" t="s"/>
-      <c r="P155" t="s"/>
-      <c r="Q155" t="s"/>
       <c r="R155" t="s">
         <v>608</v>
       </c>
-      <c r="S155" t="s"/>
-    </row>
-    <row r="156" spans="1:19">
-      <c r="A156" t="n">
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>39782.20864884535</v>
       </c>
       <c r="B156" t="s">
@@ -8538,27 +7188,15 @@
       <c r="E156" t="s">
         <v>23</v>
       </c>
-      <c r="F156" t="s"/>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s"/>
       <c r="I156" t="s">
         <v>85</v>
       </c>
       <c r="J156" t="s">
         <v>36</v>
       </c>
-      <c r="K156" t="s"/>
-      <c r="L156" t="s"/>
-      <c r="M156" t="s"/>
-      <c r="N156" t="s"/>
-      <c r="O156" t="s"/>
-      <c r="P156" t="s"/>
-      <c r="Q156" t="s"/>
-      <c r="R156" t="s"/>
-      <c r="S156" t="s"/>
-    </row>
-    <row r="157" spans="1:19">
-      <c r="A157" t="n">
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>39773.87396355519</v>
       </c>
       <c r="B157" t="s">
@@ -8573,7 +7211,6 @@
       <c r="F157" t="s">
         <v>421</v>
       </c>
-      <c r="G157" t="s"/>
       <c r="H157" t="s">
         <v>64</v>
       </c>
@@ -8583,21 +7220,13 @@
       <c r="J157" t="s">
         <v>27</v>
       </c>
-      <c r="K157" t="s"/>
-      <c r="L157" t="s"/>
-      <c r="M157" t="s"/>
-      <c r="N157" t="s"/>
-      <c r="O157" t="s"/>
-      <c r="P157" t="s"/>
-      <c r="Q157" t="s"/>
-      <c r="R157" t="s"/>
       <c r="S157" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
-      <c r="A158" t="n">
-        <v>39331.00192868131</v>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>39331.001928681311</v>
       </c>
       <c r="B158" t="s">
         <v>617</v>
@@ -8611,7 +7240,6 @@
       <c r="F158" t="s">
         <v>278</v>
       </c>
-      <c r="G158" t="s"/>
       <c r="H158" t="s">
         <v>50</v>
       </c>
@@ -8621,19 +7249,10 @@
       <c r="J158" t="s">
         <v>27</v>
       </c>
-      <c r="K158" t="s"/>
-      <c r="L158" t="s"/>
-      <c r="M158" t="s"/>
-      <c r="N158" t="s"/>
-      <c r="O158" t="s"/>
-      <c r="P158" t="s"/>
-      <c r="Q158" t="s"/>
-      <c r="R158" t="s"/>
-      <c r="S158" t="s"/>
-    </row>
-    <row r="159" spans="1:19">
-      <c r="A159" t="n">
-        <v>38621.46082923972</v>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>38621.460829239717</v>
       </c>
       <c r="B159" t="s">
         <v>619</v>
@@ -8647,7 +7266,6 @@
       <c r="F159" t="s">
         <v>424</v>
       </c>
-      <c r="G159" t="s"/>
       <c r="H159" t="s">
         <v>64</v>
       </c>
@@ -8657,20 +7275,12 @@
       <c r="J159" t="s">
         <v>27</v>
       </c>
-      <c r="K159" t="s"/>
-      <c r="L159" t="s"/>
-      <c r="M159" t="s"/>
-      <c r="N159" t="s"/>
-      <c r="O159" t="s"/>
-      <c r="P159" t="s"/>
-      <c r="Q159" t="s"/>
-      <c r="R159" t="s"/>
       <c r="S159" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
-      <c r="A160" t="n">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>37472.70431703097</v>
       </c>
       <c r="B160" t="s">
@@ -8685,7 +7295,6 @@
       <c r="F160" t="s">
         <v>264</v>
       </c>
-      <c r="G160" t="s"/>
       <c r="H160" t="s">
         <v>34</v>
       </c>
@@ -8695,21 +7304,13 @@
       <c r="J160" t="s">
         <v>94</v>
       </c>
-      <c r="K160" t="s"/>
-      <c r="L160" t="s"/>
-      <c r="M160" t="s"/>
-      <c r="N160" t="s"/>
-      <c r="O160" t="s"/>
-      <c r="P160" t="s"/>
-      <c r="Q160" t="s"/>
-      <c r="R160" t="s"/>
       <c r="S160" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
-      <c r="A161" t="n">
-        <v>37164.20370077527</v>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>37164.203700775273</v>
       </c>
       <c r="B161" t="s">
         <v>623</v>
@@ -8726,7 +7327,6 @@
       <c r="F161" t="s">
         <v>294</v>
       </c>
-      <c r="G161" t="s"/>
       <c r="H161" t="s">
         <v>34</v>
       </c>
@@ -8736,19 +7336,10 @@
       <c r="J161" t="s">
         <v>27</v>
       </c>
-      <c r="K161" t="s"/>
-      <c r="L161" t="s"/>
-      <c r="M161" t="s"/>
-      <c r="N161" t="s"/>
-      <c r="O161" t="s"/>
-      <c r="P161" t="s"/>
-      <c r="Q161" t="s"/>
-      <c r="R161" t="s"/>
-      <c r="S161" t="s"/>
-    </row>
-    <row r="162" spans="1:19">
-      <c r="A162" t="n">
-        <v>35009.5602812721</v>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>35009.560281272097</v>
       </c>
       <c r="B162" t="s">
         <v>625</v>
@@ -8762,7 +7353,6 @@
       <c r="F162" t="s">
         <v>569</v>
       </c>
-      <c r="G162" t="s"/>
       <c r="H162" t="s">
         <v>34</v>
       </c>
@@ -8772,20 +7362,12 @@
       <c r="J162" t="s">
         <v>94</v>
       </c>
-      <c r="K162" t="s"/>
-      <c r="L162" t="s"/>
-      <c r="M162" t="s"/>
-      <c r="N162" t="s"/>
-      <c r="O162" t="s"/>
-      <c r="P162" t="s"/>
-      <c r="Q162" t="s"/>
-      <c r="R162" t="s"/>
       <c r="S162" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
-      <c r="A163" t="n">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>34622.95639483181</v>
       </c>
       <c r="B163" t="s">
@@ -8803,7 +7385,6 @@
       <c r="F163" t="s">
         <v>629</v>
       </c>
-      <c r="G163" t="s"/>
       <c r="H163" t="s">
         <v>64</v>
       </c>
@@ -8813,19 +7394,10 @@
       <c r="J163" t="s">
         <v>94</v>
       </c>
-      <c r="K163" t="s"/>
-      <c r="L163" t="s"/>
-      <c r="M163" t="s"/>
-      <c r="N163" t="s"/>
-      <c r="O163" t="s"/>
-      <c r="P163" t="s"/>
-      <c r="Q163" t="s"/>
-      <c r="R163" t="s"/>
-      <c r="S163" t="s"/>
-    </row>
-    <row r="164" spans="1:19">
-      <c r="A164" t="n">
-        <v>34590.50095970285</v>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>34590.500959702847</v>
       </c>
       <c r="B164" t="s">
         <v>630</v>
@@ -8839,7 +7411,6 @@
       <c r="F164" t="s">
         <v>275</v>
       </c>
-      <c r="G164" t="s"/>
       <c r="H164" t="s">
         <v>34</v>
       </c>
@@ -8849,21 +7420,13 @@
       <c r="J164" t="s">
         <v>94</v>
       </c>
-      <c r="K164" t="s"/>
-      <c r="L164" t="s"/>
-      <c r="M164" t="s"/>
-      <c r="N164" t="s"/>
-      <c r="O164" t="s"/>
-      <c r="P164" t="s"/>
-      <c r="Q164" t="s"/>
-      <c r="R164" t="s"/>
       <c r="S164" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
-      <c r="A165" t="n">
-        <v>34374.19017558431</v>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>34374.190175584306</v>
       </c>
       <c r="B165" t="s">
         <v>632</v>
@@ -8880,7 +7443,6 @@
       <c r="F165" t="s">
         <v>629</v>
       </c>
-      <c r="G165" t="s"/>
       <c r="H165" t="s">
         <v>64</v>
       </c>
@@ -8890,19 +7452,10 @@
       <c r="J165" t="s">
         <v>27</v>
       </c>
-      <c r="K165" t="s"/>
-      <c r="L165" t="s"/>
-      <c r="M165" t="s"/>
-      <c r="N165" t="s"/>
-      <c r="O165" t="s"/>
-      <c r="P165" t="s"/>
-      <c r="Q165" t="s"/>
-      <c r="R165" t="s"/>
-      <c r="S165" t="s"/>
-    </row>
-    <row r="166" spans="1:19">
-      <c r="A166" t="n">
-        <v>34147.36417082793</v>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>34147.364170827932</v>
       </c>
       <c r="B166" t="s">
         <v>634</v>
@@ -8916,7 +7469,6 @@
       <c r="F166" t="s">
         <v>316</v>
       </c>
-      <c r="G166" t="s"/>
       <c r="H166" t="s">
         <v>34</v>
       </c>
@@ -8926,21 +7478,13 @@
       <c r="J166" t="s">
         <v>94</v>
       </c>
-      <c r="K166" t="s"/>
-      <c r="L166" t="s"/>
-      <c r="M166" t="s"/>
-      <c r="N166" t="s"/>
-      <c r="O166" t="s"/>
-      <c r="P166" t="s"/>
-      <c r="Q166" t="s"/>
-      <c r="R166" t="s"/>
       <c r="S166" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
-      <c r="A167" t="n">
-        <v>33760.76028438764</v>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>33760.760284387638</v>
       </c>
       <c r="B167" t="s">
         <v>636</v>
@@ -8954,7 +7498,6 @@
       <c r="F167" t="s">
         <v>629</v>
       </c>
-      <c r="G167" t="s"/>
       <c r="H167" t="s">
         <v>64</v>
       </c>
@@ -8964,19 +7507,10 @@
       <c r="J167" t="s">
         <v>94</v>
       </c>
-      <c r="K167" t="s"/>
-      <c r="L167" t="s"/>
-      <c r="M167" t="s"/>
-      <c r="N167" t="s"/>
-      <c r="O167" t="s"/>
-      <c r="P167" t="s"/>
-      <c r="Q167" t="s"/>
-      <c r="R167" t="s"/>
-      <c r="S167" t="s"/>
-    </row>
-    <row r="168" spans="1:19">
-      <c r="A168" t="n">
-        <v>33728.30484925867</v>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>33728.304849258668</v>
       </c>
       <c r="B168" t="s">
         <v>638</v>
@@ -8990,7 +7524,6 @@
       <c r="F168" t="s">
         <v>569</v>
       </c>
-      <c r="G168" t="s"/>
       <c r="H168" t="s">
         <v>34</v>
       </c>
@@ -9000,21 +7533,13 @@
       <c r="J168" t="s">
         <v>94</v>
       </c>
-      <c r="K168" t="s"/>
-      <c r="L168" t="s"/>
-      <c r="M168" t="s"/>
-      <c r="N168" t="s"/>
-      <c r="O168" t="s"/>
-      <c r="P168" t="s"/>
-      <c r="Q168" t="s"/>
-      <c r="R168" t="s"/>
       <c r="S168" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
-      <c r="A169" t="n">
-        <v>31265.1608134998</v>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>31265.160813499799</v>
       </c>
       <c r="B169" t="s">
         <v>640</v>
@@ -9031,7 +7556,6 @@
       <c r="F169" t="s">
         <v>32</v>
       </c>
-      <c r="G169" t="s"/>
       <c r="H169" t="s">
         <v>34</v>
       </c>
@@ -9041,21 +7565,13 @@
       <c r="J169" t="s">
         <v>94</v>
       </c>
-      <c r="K169" t="s"/>
-      <c r="L169" t="s"/>
-      <c r="M169" t="s"/>
-      <c r="N169" t="s"/>
-      <c r="O169" t="s"/>
-      <c r="P169" t="s"/>
-      <c r="Q169" t="s"/>
-      <c r="R169" t="s"/>
       <c r="S169" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
-      <c r="A170" t="n">
-        <v>31187.23994844697</v>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>31187.239948446972</v>
       </c>
       <c r="B170" t="s">
         <v>642</v>
@@ -9069,7 +7585,6 @@
       <c r="E170" t="s">
         <v>23</v>
       </c>
-      <c r="F170" t="s"/>
       <c r="G170" t="s">
         <v>33</v>
       </c>
@@ -9082,21 +7597,13 @@
       <c r="J170" t="s">
         <v>94</v>
       </c>
-      <c r="K170" t="s"/>
-      <c r="L170" t="s"/>
-      <c r="M170" t="s"/>
-      <c r="N170" t="s"/>
-      <c r="O170" t="s"/>
-      <c r="P170" t="s"/>
-      <c r="Q170" t="s"/>
-      <c r="R170" t="s"/>
       <c r="S170" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
-      <c r="A171" t="n">
-        <v>31037.64592280454</v>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>31037.645922804539</v>
       </c>
       <c r="B171" t="s">
         <v>644</v>
@@ -9107,30 +7614,19 @@
       <c r="E171" t="s">
         <v>23</v>
       </c>
-      <c r="F171" t="s"/>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s"/>
       <c r="I171" t="s">
         <v>148</v>
       </c>
       <c r="J171" t="s">
         <v>94</v>
       </c>
-      <c r="K171" t="s"/>
-      <c r="L171" t="s"/>
-      <c r="M171" t="s"/>
-      <c r="N171" t="s"/>
-      <c r="O171" t="s"/>
-      <c r="P171" t="s"/>
-      <c r="Q171" t="s"/>
       <c r="R171" t="s">
         <v>512</v>
       </c>
-      <c r="S171" t="s"/>
-    </row>
-    <row r="172" spans="1:19">
-      <c r="A172" t="n">
-        <v>30790.11222118508</v>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>30790.112221185082</v>
       </c>
       <c r="B172" t="s">
         <v>646</v>
@@ -9144,7 +7640,6 @@
       <c r="F172" t="s">
         <v>226</v>
       </c>
-      <c r="G172" t="s"/>
       <c r="H172" t="s">
         <v>34</v>
       </c>
@@ -9154,20 +7649,12 @@
       <c r="J172" t="s">
         <v>94</v>
       </c>
-      <c r="K172" t="s"/>
-      <c r="L172" t="s"/>
-      <c r="M172" t="s"/>
-      <c r="N172" t="s"/>
-      <c r="O172" t="s"/>
-      <c r="P172" t="s"/>
-      <c r="Q172" t="s"/>
-      <c r="R172" t="s"/>
       <c r="S172" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
-      <c r="A173" t="n">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>30402.96470305563</v>
       </c>
       <c r="B173" t="s">
@@ -9182,7 +7669,6 @@
       <c r="F173" t="s">
         <v>32</v>
       </c>
-      <c r="G173" t="s"/>
       <c r="H173" t="s">
         <v>34</v>
       </c>
@@ -9192,21 +7678,13 @@
       <c r="J173" t="s">
         <v>94</v>
       </c>
-      <c r="K173" t="s"/>
-      <c r="L173" t="s"/>
-      <c r="M173" t="s"/>
-      <c r="N173" t="s"/>
-      <c r="O173" t="s"/>
-      <c r="P173" t="s"/>
-      <c r="Q173" t="s"/>
-      <c r="R173" t="s"/>
       <c r="S173" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
-      <c r="A174" t="n">
-        <v>29927.91611074091</v>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>29927.916110740909</v>
       </c>
       <c r="B174" t="s">
         <v>650</v>
@@ -9220,7 +7698,6 @@
       <c r="F174" t="s">
         <v>226</v>
       </c>
-      <c r="G174" t="s"/>
       <c r="H174" t="s">
         <v>34</v>
       </c>
@@ -9230,21 +7707,13 @@
       <c r="J174" t="s">
         <v>94</v>
       </c>
-      <c r="K174" t="s"/>
-      <c r="L174" t="s"/>
-      <c r="M174" t="s"/>
-      <c r="N174" t="s"/>
-      <c r="O174" t="s"/>
-      <c r="P174" t="s"/>
-      <c r="Q174" t="s"/>
-      <c r="R174" t="s"/>
       <c r="S174" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
-      <c r="A175" t="n">
-        <v>28721.45448982415</v>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>28721.454489824151</v>
       </c>
       <c r="B175" t="s">
         <v>652</v>
@@ -9261,29 +7730,19 @@
       <c r="F175" t="s">
         <v>286</v>
       </c>
-      <c r="G175" t="s"/>
       <c r="H175" t="s">
         <v>34</v>
       </c>
       <c r="I175" t="s">
         <v>148</v>
       </c>
-      <c r="J175" t="s"/>
-      <c r="K175" t="s"/>
-      <c r="L175" t="s"/>
-      <c r="M175" t="s"/>
-      <c r="N175" t="s"/>
-      <c r="O175" t="s"/>
-      <c r="P175" t="s"/>
-      <c r="Q175" t="s"/>
-      <c r="R175" t="s"/>
       <c r="S175" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
-      <c r="A176" t="n">
-        <v>28050.37937261032</v>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>28050.379372610321</v>
       </c>
       <c r="B176" t="s">
         <v>654</v>
@@ -9294,8 +7753,6 @@
       <c r="E176" t="s">
         <v>23</v>
       </c>
-      <c r="F176" t="s"/>
-      <c r="G176" t="s"/>
       <c r="H176" t="s">
         <v>34</v>
       </c>
@@ -9305,19 +7762,10 @@
       <c r="J176" t="s">
         <v>27</v>
       </c>
-      <c r="K176" t="s"/>
-      <c r="L176" t="s"/>
-      <c r="M176" t="s"/>
-      <c r="N176" t="s"/>
-      <c r="O176" t="s"/>
-      <c r="P176" t="s"/>
-      <c r="Q176" t="s"/>
-      <c r="R176" t="s"/>
-      <c r="S176" t="s"/>
-    </row>
-    <row r="177" spans="1:19">
-      <c r="A177" t="n">
-        <v>27552.56565471049</v>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>27552.565654710492</v>
       </c>
       <c r="B177" t="s">
         <v>656</v>
@@ -9328,22 +7776,12 @@
       <c r="E177" t="s">
         <v>23</v>
       </c>
-      <c r="F177" t="s"/>
       <c r="G177" t="s">
         <v>33</v>
       </c>
-      <c r="H177" t="s"/>
       <c r="I177" t="s">
         <v>85</v>
       </c>
-      <c r="J177" t="s"/>
-      <c r="K177" t="s"/>
-      <c r="L177" t="s"/>
-      <c r="M177" t="s"/>
-      <c r="N177" t="s"/>
-      <c r="O177" t="s"/>
-      <c r="P177" t="s"/>
-      <c r="Q177" t="s"/>
       <c r="R177" t="s">
         <v>512</v>
       </c>
@@ -9351,9 +7789,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
-      <c r="A178" t="n">
-        <v>26831.26952602737</v>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>26831.269526027369</v>
       </c>
       <c r="B178" t="s">
         <v>658</v>
@@ -9364,28 +7802,16 @@
       <c r="E178" t="s">
         <v>23</v>
       </c>
-      <c r="F178" t="s"/>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s"/>
       <c r="I178" t="s">
         <v>148</v>
       </c>
-      <c r="J178" t="s"/>
-      <c r="K178" t="s"/>
-      <c r="L178" t="s"/>
-      <c r="M178" t="s"/>
-      <c r="N178" t="s"/>
-      <c r="O178" t="s"/>
-      <c r="P178" t="s"/>
-      <c r="Q178" t="s"/>
       <c r="R178" t="s">
         <v>512</v>
       </c>
-      <c r="S178" t="s"/>
-    </row>
-    <row r="179" spans="1:19">
-      <c r="A179" t="n">
-        <v>22848.1969267707</v>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>22848.196926770699</v>
       </c>
       <c r="B179" t="s">
         <v>660</v>
@@ -9396,24 +7822,23 @@
       <c r="E179" t="s">
         <v>23</v>
       </c>
-      <c r="F179" t="s"/>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s"/>
       <c r="I179" t="s">
         <v>148</v>
       </c>
-      <c r="J179" t="s"/>
-      <c r="K179" t="s"/>
-      <c r="L179" t="s"/>
-      <c r="M179" t="s"/>
-      <c r="N179" t="s"/>
-      <c r="O179" t="s"/>
-      <c r="P179" t="s"/>
-      <c r="Q179" t="s"/>
-      <c r="R179" t="s"/>
-      <c r="S179" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>